--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D246976-FACC-284D-B91C-B8E4358A2BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD1B6D-930A-944A-A77F-8E8041C61A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2280" windowWidth="28340" windowHeight="18720" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1560" yWindow="2280" windowWidth="28340" windowHeight="18720" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -875,11 +875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3751,7 +3751,7 @@
         <v>91</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41">
         <v>-0.4</v>
@@ -3819,7 +3819,7 @@
         <v>91</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U42">
         <v>-0.4</v>
@@ -4100,7 +4100,7 @@
         <v>91</v>
       </c>
       <c r="R46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U46">
         <v>-1</v>
@@ -4171,7 +4171,7 @@
         <v>91</v>
       </c>
       <c r="R47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U47">
         <v>-0.4</v>
@@ -4239,7 +4239,7 @@
         <v>91</v>
       </c>
       <c r="R48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U48">
         <v>-0.4</v>
@@ -4307,7 +4307,7 @@
         <v>91</v>
       </c>
       <c r="R49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U49">
         <v>-0.4</v>
@@ -4375,7 +4375,7 @@
         <v>91</v>
       </c>
       <c r="R50">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U50">
         <v>-0.4</v>
@@ -4715,7 +4715,7 @@
         <v>91</v>
       </c>
       <c r="R55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U55">
         <v>-0.4</v>
@@ -4783,7 +4783,7 @@
         <v>91</v>
       </c>
       <c r="R56">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U56">
         <v>-0.4</v>
@@ -4851,7 +4851,7 @@
         <v>91</v>
       </c>
       <c r="R57">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U57">
         <v>-0.4</v>
@@ -4919,7 +4919,7 @@
         <v>91</v>
       </c>
       <c r="R58">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U58">
         <v>-0.4</v>
@@ -4987,7 +4987,7 @@
         <v>91</v>
       </c>
       <c r="R59">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U59">
         <v>-0.4</v>
@@ -5055,7 +5055,7 @@
         <v>91</v>
       </c>
       <c r="R60">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="U60">
         <v>-0.4</v>
@@ -5123,7 +5123,7 @@
         <v>91</v>
       </c>
       <c r="R61">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U61">
         <v>-0.4</v>
@@ -5797,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD1B6D-930A-944A-A77F-8E8041C61A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D6609-4F22-7741-8800-E3B1F6BA83D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2280" windowWidth="28340" windowHeight="18720" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1560" yWindow="2280" windowWidth="28340" windowHeight="18720" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5797,11 +5797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7226,11 +7226,11 @@
       <c r="M22">
         <v>16</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
+      <c r="N22" s="3">
+        <v>1.2283999999999999E-3</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
+        <v>-44.078767300000003</v>
       </c>
       <c r="P22" s="4">
         <v>2</v>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D6609-4F22-7741-8800-E3B1F6BA83D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477A18B-F69A-B746-AF0D-0292F5665827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2280" windowWidth="28340" windowHeight="18720" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="57420" yWindow="-5660" windowWidth="28340" windowHeight="18720" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -875,11 +875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R61" sqref="R61"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,6 +1085,12 @@
       <c r="S3" t="s">
         <v>36</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>86400</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1225,10 +1231,10 @@
         <v>15.5</v>
       </c>
       <c r="W5">
-        <v>0.3</v>
+        <v>14</v>
       </c>
       <c r="X5">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1296,10 +1302,10 @@
         <v>15.5</v>
       </c>
       <c r="W6">
-        <v>0.3</v>
+        <v>12</v>
       </c>
       <c r="X6">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1367,10 +1373,10 @@
         <v>15.5</v>
       </c>
       <c r="W7">
-        <v>0.3</v>
+        <v>14</v>
       </c>
       <c r="X7">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -3216,10 +3222,10 @@
         <v>11800</v>
       </c>
       <c r="W33">
-        <v>-10000</v>
+        <v>-20000</v>
       </c>
       <c r="X33">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -3287,10 +3293,10 @@
         <v>11800</v>
       </c>
       <c r="W34">
-        <v>-10000</v>
+        <v>-20000</v>
       </c>
       <c r="X34">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -3358,10 +3364,10 @@
         <v>11800</v>
       </c>
       <c r="W35">
-        <v>-10000</v>
+        <v>-20000</v>
       </c>
       <c r="X35">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -3632,6 +3638,18 @@
       <c r="S39" t="s">
         <v>79</v>
       </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>100</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -3763,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -3831,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -4109,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>10</v>
@@ -4183,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -4251,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
@@ -4319,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
@@ -4387,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
@@ -4455,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -4523,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
@@ -4591,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -4659,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
@@ -4727,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
@@ -4795,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
@@ -4863,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
@@ -4931,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -4999,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
@@ -5067,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -5135,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -5339,10 +5357,10 @@
         <v>110</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -5410,7 +5428,7 @@
         <v>4200</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X65">
         <v>4000</v>
@@ -5544,6 +5562,18 @@
       </c>
       <c r="S67" t="s">
         <v>37</v>
+      </c>
+      <c r="U67">
+        <v>-100</v>
+      </c>
+      <c r="V67">
+        <v>100</v>
+      </c>
+      <c r="W67">
+        <v>-0.5</v>
+      </c>
+      <c r="X67">
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -5797,11 +5827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5948,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -6006,6 +6036,12 @@
       <c r="S3" t="s">
         <v>36</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>86400</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -7180,10 +7216,10 @@
         <v>11</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -7243,6 +7279,12 @@
       </c>
       <c r="S22" t="s">
         <v>155</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477A18B-F69A-B746-AF0D-0292F5665827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22D2FA3-4F7B-E846-BE64-87374EAD4767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57420" yWindow="-5660" windowWidth="28340" windowHeight="18720" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="32440" windowHeight="20540" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>counter</t>
   </si>
   <si>
-    <t>Error Code</t>
-  </si>
-  <si>
     <t>az</t>
   </si>
   <si>
@@ -483,9 +480,6 @@
     <t>GSE day (pcm)</t>
   </si>
   <si>
-    <t>GSE Time (pcm)</t>
-  </si>
-  <si>
     <t>Frame count (pcm)</t>
   </si>
   <si>
@@ -508,6 +502,12 @@
   </si>
   <si>
     <t>IG I</t>
+  </si>
+  <si>
+    <t>Error code</t>
+  </si>
+  <si>
+    <t>GSE time (pcm)</t>
   </si>
 </sst>
 </file>
@@ -902,67 +902,67 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1077,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1213,13 +1213,13 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1287,13 +1287,13 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="2">
         <v>-0.5</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1358,13 +1358,13 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="2">
         <v>-0.5</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1429,13 +1429,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="2">
         <v>-0.1</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1500,13 +1500,13 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="2">
         <v>-0.1</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1571,13 +1571,13 @@
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="2">
         <v>-0.1</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1642,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="2">
         <v>-0.1</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1713,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R12">
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="2">
         <v>-0.1</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1784,13 +1784,13 @@
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R13">
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="2">
         <v>-0.1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1855,13 +1855,13 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R14">
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="2">
         <v>-0.1</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1902,7 +1902,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>2</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U15" s="2">
         <v>-22</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1997,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R16">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U16" s="2">
         <v>-2500</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2068,13 +2068,13 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T17">
         <v>3</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2142,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U18" s="2">
         <v>-5</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2213,13 +2213,13 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R19">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U19" s="2">
         <v>-5</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2284,13 +2284,13 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="S20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U20" s="2">
         <v>-5</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2355,13 +2355,13 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U21" s="2">
         <v>-5</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2426,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R22">
         <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U22" s="2">
         <v>-20</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2497,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U23" s="2">
         <v>-20</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2568,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R24">
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U24" s="2">
         <v>-5</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2639,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R25">
         <v>6</v>
       </c>
       <c r="S25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U25" s="2">
         <v>-5</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2710,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R26">
         <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U26" s="2">
         <v>-5</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2781,13 +2781,13 @@
         <v>2</v>
       </c>
       <c r="Q27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U27" s="2">
         <v>-13</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2852,13 +2852,13 @@
         <v>2</v>
       </c>
       <c r="Q28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U28" s="2">
         <v>-13</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2923,13 +2923,13 @@
         <v>2</v>
       </c>
       <c r="Q29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="S29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U29" s="2">
         <v>-13</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="S30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U30" s="2">
         <v>-1200</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3065,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U31" s="2">
         <v>-1200</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3136,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R32">
         <v>5</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U32" s="2">
         <v>-1200</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R33">
         <v>6</v>
       </c>
       <c r="S33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U33" s="2">
         <v>-11800</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U34" s="2">
         <v>-11800</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3349,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R35">
         <v>8</v>
       </c>
       <c r="S35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U35" s="2">
         <v>-11800</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3420,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R36">
         <v>9</v>
       </c>
       <c r="S36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U36">
         <v>-220</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3491,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R37">
         <v>10</v>
       </c>
       <c r="S37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U37">
         <v>-110</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R38">
         <v>11</v>
       </c>
       <c r="S38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U38">
         <v>-110</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3609,7 +3609,7 @@
         <v>-1</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -3633,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="Q39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R41">
         <v>2</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R42">
         <v>3</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4133,12 +4133,12 @@
         <v>10</v>
       </c>
       <c r="Y46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4162,7 +4162,7 @@
         <v>-1</v>
       </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R47">
         <v>8</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4230,7 +4230,7 @@
         <v>-1</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R48">
         <v>9</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>-1</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R49">
         <v>10</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>-1</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R50">
         <v>11</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4434,7 +4434,7 @@
         <v>-1</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4502,7 +4502,7 @@
         <v>-1</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4570,7 +4570,7 @@
         <v>-1</v>
       </c>
       <c r="I53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4638,7 +4638,7 @@
         <v>-1</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4706,7 +4706,7 @@
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R56">
         <v>17</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4842,7 +4842,7 @@
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R57">
         <v>18</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4910,7 +4910,7 @@
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R58">
         <v>19</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4978,7 +4978,7 @@
         <v>-1</v>
       </c>
       <c r="I59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R59">
         <v>20</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5046,7 +5046,7 @@
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R60">
         <v>21</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5114,7 +5114,7 @@
         <v>-1</v>
       </c>
       <c r="I61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R61">
         <v>22</v>
@@ -5182,7 +5182,7 @@
         <v>-1</v>
       </c>
       <c r="I62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U62">
         <v>-0.4</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5271,13 +5271,13 @@
         <v>1</v>
       </c>
       <c r="Q63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R63">
         <v>8</v>
       </c>
       <c r="S63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U63" s="2">
         <v>-5</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5342,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R64">
         <v>12</v>
       </c>
       <c r="S64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U64">
         <v>-10</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5413,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R65">
         <v>13</v>
       </c>
       <c r="S65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U65">
         <v>-200</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5484,13 +5484,13 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R66">
         <v>14</v>
       </c>
       <c r="S66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U66">
         <v>-40</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5555,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R67">
         <v>16</v>
       </c>
       <c r="S67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U67">
         <v>-100</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
@@ -5853,72 +5853,72 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R2">
         <v>3</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6028,13 +6028,13 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R3">
         <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6161,13 +6161,13 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R5">
         <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6235,13 +6235,13 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R6">
         <v>11</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="2">
         <v>-0.1</v>
@@ -6306,13 +6306,13 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U7">
         <v>-12</v>
@@ -6377,13 +6377,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R8">
         <v>13</v>
       </c>
       <c r="S8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U8">
         <v>-12</v>
@@ -6448,13 +6448,13 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R9">
         <v>14</v>
       </c>
       <c r="S9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U9">
         <v>-12</v>
@@ -6519,13 +6519,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R10">
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U10">
         <v>-1000</v>
@@ -6590,13 +6590,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R11">
         <v>16</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U11">
         <v>-1000</v>
@@ -6661,13 +6661,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R12">
         <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U12">
         <v>-1000</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -6797,12 +6797,12 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6826,7 +6826,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
         <v>16</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6894,7 +6894,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S16" t="s">
         <v>16</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6986,12 +6986,12 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7039,12 +7039,12 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7092,12 +7092,12 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7145,12 +7145,12 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -7198,13 +7198,13 @@
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T21">
         <v>4</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -7272,13 +7272,13 @@
         <v>2</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R22">
         <v>5</v>
       </c>
       <c r="S22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W22">
         <v>0</v>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22D2FA3-4F7B-E846-BE64-87374EAD4767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D831E-E056-0C4A-99BB-61007FA9B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="32440" windowHeight="20540" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="30340" windowHeight="19360" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -1024,10 +1024,10 @@
         <v>380</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X2">
-        <v>366</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1086,10 +1086,10 @@
         <v>35</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="X3">
-        <v>86400</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>37</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" s="2">
         <v>-0.5</v>
@@ -1231,7 +1231,7 @@
         <v>15.5</v>
       </c>
       <c r="W5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5">
         <v>14.5</v>
@@ -1302,10 +1302,10 @@
         <v>15.5</v>
       </c>
       <c r="W6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X6">
-        <v>14.5</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
         <v>15.5</v>
       </c>
       <c r="W7">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="X7">
         <v>14.5</v>
@@ -1444,10 +1444,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1515,10 +1515,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1586,10 +1586,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1657,10 +1657,10 @@
         <v>1.6</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1728,10 +1728,10 @@
         <v>1.6</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1799,10 +1799,10 @@
         <v>1.6</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1870,10 +1870,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2076,9 +2076,6 @@
       <c r="S17" t="s">
         <v>39</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
       <c r="U17" s="2">
         <v>-5</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>45</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17">
         <v>35</v>
@@ -2157,7 +2154,7 @@
         <v>45</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X18">
         <v>35</v>
@@ -2228,7 +2225,7 @@
         <v>45</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X19">
         <v>35</v>
@@ -2299,7 +2296,7 @@
         <v>45</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X20">
         <v>35</v>
@@ -2370,7 +2367,7 @@
         <v>45</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X21">
         <v>35</v>
@@ -2441,10 +2438,10 @@
         <v>220</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X22">
-        <v>180</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2512,10 +2509,10 @@
         <v>220</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X23">
-        <v>180</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2583,7 +2580,7 @@
         <v>45</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X24">
         <v>40</v>
@@ -2654,7 +2651,7 @@
         <v>45</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X25">
         <v>40</v>
@@ -2725,7 +2722,7 @@
         <v>45</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X26">
         <v>40</v>
@@ -3435,7 +3432,7 @@
         <v>220</v>
       </c>
       <c r="W36">
-        <v>-18</v>
+        <v>-180</v>
       </c>
       <c r="X36">
         <v>180</v>
@@ -5499,10 +5496,10 @@
         <v>540</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X66">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -5975,10 +5972,10 @@
         <v>380</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X2">
-        <v>365</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -6179,10 +6176,10 @@
         <v>1.3</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -6243,6 +6240,9 @@
       <c r="S6" t="s">
         <v>37</v>
       </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
       <c r="U6" s="2">
         <v>-0.1</v>
       </c>
@@ -6250,10 +6250,10 @@
         <v>1.3</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -7216,7 +7216,7 @@
         <v>11</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>10</v>
@@ -7281,10 +7281,10 @@
         <v>153</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X22">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/Dropbox/01_研究/01_projects/03_detonation engine/S-520-34/21_設計情報/05_計測系/QL/desql v2.7.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D831E-E056-0C4A-99BB-61007FA9B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2CAEB7-4DFD-7B45-9F92-3092EA36D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="30340" windowHeight="19360" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1640" yWindow="500" windowWidth="17500" windowHeight="20500" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="159">
   <si>
     <t>item</t>
   </si>
@@ -69,15 +69,6 @@
     <t>omg_z,ci</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>omg</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>binary</t>
   </si>
   <si>
-    <t>EA</t>
-  </si>
-  <si>
     <t>ec</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>gse time</t>
   </si>
   <si>
-    <t>Relay 2-8</t>
-  </si>
-  <si>
     <t>counter</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>MPa</t>
   </si>
   <si>
@@ -156,12 +138,6 @@
     <t>°C</t>
   </si>
   <si>
-    <t>deg</t>
-  </si>
-  <si>
-    <t>arb.</t>
-  </si>
-  <si>
     <t>deg/s</t>
   </si>
   <si>
@@ -204,75 +180,21 @@
     <t>Sequence state</t>
   </si>
   <si>
-    <t>Seq. state</t>
-  </si>
-  <si>
     <t>item order</t>
   </si>
   <si>
     <t>word len</t>
   </si>
   <si>
-    <t>des time</t>
-  </si>
-  <si>
     <t>MB</t>
   </si>
   <si>
     <t>GB</t>
   </si>
   <si>
-    <t>F2a Open</t>
-  </si>
-  <si>
-    <t>F2a Close</t>
-  </si>
-  <si>
-    <t>O2a Open</t>
-  </si>
-  <si>
-    <t>O2a Close</t>
-  </si>
-  <si>
-    <t>RSa</t>
-  </si>
-  <si>
-    <t>PFa</t>
-  </si>
-  <si>
-    <t>POSa</t>
-  </si>
-  <si>
-    <t>NRF</t>
-  </si>
-  <si>
-    <t>F2b Open</t>
-  </si>
-  <si>
-    <t>F2b Close</t>
-  </si>
-  <si>
-    <t>O2b Open</t>
-  </si>
-  <si>
-    <t>O2b Close</t>
-  </si>
-  <si>
-    <t>RSb</t>
-  </si>
-  <si>
-    <t>PFb</t>
-  </si>
-  <si>
-    <t>POSb</t>
-  </si>
-  <si>
     <t>integer bit len</t>
   </si>
   <si>
-    <t>sec</t>
-  </si>
-  <si>
     <t>PCB header</t>
   </si>
   <si>
@@ -351,27 +273,6 @@
     <t>Ptn</t>
   </si>
   <si>
-    <t>Prgf</t>
-  </si>
-  <si>
-    <t>Prgo</t>
-  </si>
-  <si>
-    <t>Prgn</t>
-  </si>
-  <si>
-    <t>Pplef1</t>
-  </si>
-  <si>
-    <t>Pplef2</t>
-  </si>
-  <si>
-    <t>Ppleo</t>
-  </si>
-  <si>
-    <t>Pthrde</t>
-  </si>
-  <si>
     <t>AutoZero</t>
   </si>
   <si>
@@ -387,78 +288,18 @@
     <t>Ttn</t>
   </si>
   <si>
-    <t>Trgf</t>
-  </si>
-  <si>
-    <t>Trgo</t>
-  </si>
-  <si>
-    <t>Tcrde</t>
-  </si>
-  <si>
-    <t>Tthrde</t>
-  </si>
-  <si>
-    <t>Tcpde</t>
-  </si>
-  <si>
     <t>Tcrio</t>
   </si>
   <si>
     <t>Tmcu</t>
   </si>
   <si>
-    <t>a_x</t>
-  </si>
-  <si>
     <t>m/s2</t>
   </si>
   <si>
-    <t>a_y</t>
-  </si>
-  <si>
-    <t>a_z</t>
-  </si>
-  <si>
-    <t>omg_x</t>
-  </si>
-  <si>
-    <t>omg_y</t>
-  </si>
-  <si>
-    <t>omg_z</t>
-  </si>
-  <si>
-    <t>B_x</t>
-  </si>
-  <si>
-    <t>B_y</t>
-  </si>
-  <si>
-    <t>B_z</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Pitch</t>
-  </si>
-  <si>
-    <t>Yaw</t>
-  </si>
-  <si>
     <t>DES time</t>
   </si>
   <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>V24 cont.</t>
-  </si>
-  <si>
-    <t>V24 valv.</t>
-  </si>
-  <si>
     <t>Tchassis</t>
   </si>
   <si>
@@ -468,15 +309,6 @@
     <t>RAM free space</t>
   </si>
   <si>
-    <t>SSD occupation</t>
-  </si>
-  <si>
-    <t>Pc,rde</t>
-  </si>
-  <si>
-    <t>Pc,pde</t>
-  </si>
-  <si>
     <t>GSE day (pcm)</t>
   </si>
   <si>
@@ -489,9 +321,6 @@
     <t>Frame count (smt)</t>
   </si>
   <si>
-    <t>Loop count (smt)</t>
-  </si>
-  <si>
     <t>PI-AVIO I</t>
   </si>
   <si>
@@ -504,10 +333,184 @@
     <t>IG I</t>
   </si>
   <si>
+    <t>GSE time (pcm)</t>
+  </si>
+  <si>
+    <t>Ppf</t>
+  </si>
+  <si>
+    <t>Ppo</t>
+  </si>
+  <si>
+    <t>Pjf</t>
+  </si>
+  <si>
+    <t>Pjo</t>
+  </si>
+  <si>
+    <t>Pc0</t>
+  </si>
+  <si>
+    <t>Pc1</t>
+  </si>
+  <si>
+    <t>Pth</t>
+  </si>
+  <si>
+    <t>Tjf</t>
+  </si>
+  <si>
+    <t>Tjo</t>
+  </si>
+  <si>
+    <t>Tc1</t>
+  </si>
+  <si>
+    <t>Tc9</t>
+  </si>
+  <si>
+    <t>Tth</t>
+  </si>
+  <si>
+    <t>V5 cnt</t>
+  </si>
+  <si>
+    <t>V24 cnt</t>
+  </si>
+  <si>
+    <t>V24 val</t>
+  </si>
+  <si>
+    <t>n/a 1</t>
+  </si>
+  <si>
+    <t>n/a 2</t>
+  </si>
+  <si>
+    <t>W 13</t>
+  </si>
+  <si>
+    <t>W 14</t>
+  </si>
+  <si>
+    <t>W 15</t>
+  </si>
+  <si>
+    <t>W 16</t>
+  </si>
+  <si>
+    <t>W 17</t>
+  </si>
+  <si>
+    <t>W 18</t>
+  </si>
+  <si>
+    <t>W 19</t>
+  </si>
+  <si>
+    <t>W 20</t>
+  </si>
+  <si>
+    <t>W 21</t>
+  </si>
+  <si>
+    <t>W 22</t>
+  </si>
+  <si>
+    <t>W 36</t>
+  </si>
+  <si>
+    <t>W 37</t>
+  </si>
+  <si>
+    <t>Rel 1-0</t>
+  </si>
+  <si>
+    <t>Rel 1-1</t>
+  </si>
+  <si>
+    <t>Rel 1-2</t>
+  </si>
+  <si>
+    <t>Rel 1-3</t>
+  </si>
+  <si>
+    <t>Rel 1-4</t>
+  </si>
+  <si>
+    <t>Rel 1-5</t>
+  </si>
+  <si>
+    <t>Rel 1-6</t>
+  </si>
+  <si>
+    <t>Rel 1-7</t>
+  </si>
+  <si>
+    <t>Rel 2-0</t>
+  </si>
+  <si>
+    <t>Rel 2-1</t>
+  </si>
+  <si>
+    <t>Rel 2-2</t>
+  </si>
+  <si>
+    <t>Rel 2-3</t>
+  </si>
+  <si>
+    <t>Rel 2-4</t>
+  </si>
+  <si>
+    <t>Rel 2-5</t>
+  </si>
+  <si>
+    <t>Rel 2-6</t>
+  </si>
+  <si>
+    <t>Rel 2-7</t>
+  </si>
+  <si>
+    <t>Stat. counter</t>
+  </si>
+  <si>
+    <t>Err. stat.</t>
+  </si>
+  <si>
+    <t>SSD free space</t>
+  </si>
+  <si>
     <t>Error code</t>
   </si>
   <si>
-    <t>GSE time (pcm)</t>
+    <t>W036 pcm</t>
+  </si>
+  <si>
+    <t>Seq. status</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>PCB PL01</t>
+  </si>
+  <si>
+    <t>pcb</t>
+  </si>
+  <si>
+    <t>PCB PL05</t>
+  </si>
+  <si>
+    <t>PCB PL06</t>
+  </si>
+  <si>
+    <t>PCB PL02</t>
+  </si>
+  <si>
+    <t>PCB PL03</t>
+  </si>
+  <si>
+    <t>PCB PL04</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00.E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -528,6 +531,33 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,12 +583,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,9 +927,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
-  <dimension ref="A1:Y112"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -902,72 +956,72 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" t="s">
-        <v>84</v>
-      </c>
       <c r="V1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -991,7 +1045,7 @@
         <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -1012,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1032,7 +1086,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1056,7 +1110,7 @@
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -1077,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W3">
         <v>18000</v>
@@ -1094,7 +1148,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1118,7 +1172,7 @@
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -1142,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -1165,7 +1219,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1189,7 +1243,7 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -1203,8 +1257,8 @@
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="2">
-        <v>2</v>
+      <c r="N5" s="5">
+        <v>0.5</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1213,16 +1267,13 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="U5" s="2">
         <v>-0.5</v>
@@ -1239,7 +1290,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1263,7 +1314,7 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -1277,7 +1328,7 @@
       <c r="M6">
         <v>5</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="5">
         <v>2</v>
       </c>
       <c r="O6" s="2">
@@ -1287,13 +1338,16 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>-0.5</v>
@@ -1310,7 +1364,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1334,7 +1388,7 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -1348,7 +1402,7 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="5">
         <v>2</v>
       </c>
       <c r="O7" s="2">
@@ -1358,13 +1412,13 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R7">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U7" s="2">
         <v>-0.5</v>
@@ -1381,7 +1435,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1405,7 +1459,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1419,8 +1473,8 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="N8" s="2">
-        <v>0.2</v>
+      <c r="N8" s="5">
+        <v>0.5</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1429,13 +1483,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U8" s="2">
         <v>-0.1</v>
@@ -1452,7 +1506,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1476,7 +1530,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1490,8 +1544,8 @@
       <c r="M9">
         <v>5</v>
       </c>
-      <c r="N9" s="2">
-        <v>0.2</v>
+      <c r="N9" s="5">
+        <v>2</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -1500,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U9" s="2">
         <v>-0.1</v>
@@ -1523,7 +1577,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1547,7 +1601,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1561,8 +1615,8 @@
       <c r="M10">
         <v>5</v>
       </c>
-      <c r="N10" s="2">
-        <v>0.2</v>
+      <c r="N10" s="5">
+        <v>0.5</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -1571,13 +1625,13 @@
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U10" s="2">
         <v>-0.1</v>
@@ -1594,7 +1648,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1618,7 +1672,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1632,8 +1686,8 @@
       <c r="M11">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
-        <v>0.2</v>
+      <c r="N11" s="5">
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -1642,13 +1696,13 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U11" s="2">
         <v>-0.1</v>
@@ -1665,7 +1719,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1689,7 +1743,7 @@
         <v>-1</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -1703,8 +1757,8 @@
       <c r="M12">
         <v>5</v>
       </c>
-      <c r="N12" s="2">
-        <v>0.2</v>
+      <c r="N12" s="5">
+        <v>0.5</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -1713,13 +1767,13 @@
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R12">
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U12" s="2">
         <v>-0.1</v>
@@ -1736,7 +1790,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1760,7 +1814,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1774,8 +1828,8 @@
       <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13" s="2">
-        <v>0.2</v>
+      <c r="N13" s="5">
+        <v>0.5</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -1784,13 +1838,13 @@
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R13">
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U13" s="2">
         <v>-0.1</v>
@@ -1807,7 +1861,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1831,7 +1885,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1845,8 +1899,8 @@
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="N14" s="2">
-        <v>0.1</v>
+      <c r="N14" s="5">
+        <v>0.5</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -1855,13 +1909,13 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U14" s="2">
         <v>-0.1</v>
@@ -1878,7 +1932,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1890,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -1902,7 +1956,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1926,13 +1980,13 @@
         <v>2</v>
       </c>
       <c r="Q15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U15" s="2">
         <v>-22</v>
@@ -1949,7 +2003,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1961,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -1973,7 +2027,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1997,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R16">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U16" s="2">
         <v>-2500</v>
@@ -2020,7 +2074,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2032,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -2044,7 +2098,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -2068,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U17" s="2">
         <v>-5</v>
@@ -2091,7 +2145,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2103,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -2115,7 +2169,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -2139,13 +2193,16 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
       </c>
       <c r="U18" s="2">
         <v>-5</v>
@@ -2162,7 +2219,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2174,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>-1</v>
@@ -2186,7 +2243,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -2210,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R19">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U19" s="2">
         <v>-5</v>
@@ -2233,7 +2290,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2245,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>-1</v>
@@ -2257,7 +2314,7 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2281,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="S20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U20" s="2">
         <v>-5</v>
@@ -2304,7 +2361,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2316,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -2328,7 +2385,7 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -2352,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U21" s="2">
         <v>-5</v>
@@ -2375,7 +2432,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2387,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -2399,7 +2456,7 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2423,13 +2480,16 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R22">
         <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
       </c>
       <c r="U22" s="2">
         <v>-20</v>
@@ -2446,7 +2506,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2458,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -2470,7 +2530,7 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -2494,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U23" s="2">
         <v>-20</v>
@@ -2517,7 +2577,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2529,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -2541,7 +2601,7 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2565,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R24">
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U24" s="2">
         <v>-5</v>
@@ -2588,7 +2648,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2600,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>-1</v>
@@ -2612,7 +2672,7 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2636,13 +2696,13 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R25">
         <v>6</v>
       </c>
       <c r="S25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U25" s="2">
         <v>-5</v>
@@ -2659,7 +2719,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2671,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>-1</v>
@@ -2683,7 +2743,7 @@
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -2707,13 +2767,13 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R26">
         <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U26" s="2">
         <v>-5</v>
@@ -2730,7 +2790,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2741,8 +2801,8 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>35</v>
+      <c r="E27" s="6">
+        <v>13</v>
       </c>
       <c r="F27">
         <v>-1</v>
@@ -2754,19 +2814,19 @@
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
@@ -2775,16 +2835,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R27">
         <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>125</v>
       </c>
       <c r="U27" s="2">
         <v>-13</v>
@@ -2801,7 +2858,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2812,8 +2869,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>37</v>
+      <c r="E28" s="6">
+        <v>14</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -2825,19 +2882,19 @@
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
@@ -2846,16 +2903,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R28">
         <v>1</v>
-      </c>
-      <c r="S28" t="s">
-        <v>125</v>
       </c>
       <c r="U28" s="2">
         <v>-13</v>
@@ -2872,7 +2926,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2883,8 +2937,8 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>39</v>
+      <c r="E29" s="6">
+        <v>15</v>
       </c>
       <c r="F29">
         <v>-1</v>
@@ -2896,19 +2950,19 @@
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N29" s="2">
         <v>1</v>
@@ -2917,17 +2971,14 @@
         <v>0</v>
       </c>
       <c r="P29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
-      <c r="S29" t="s">
-        <v>125</v>
-      </c>
       <c r="U29" s="2">
         <v>-13</v>
       </c>
@@ -2943,7 +2994,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2954,8 +3005,8 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>41</v>
+      <c r="E30" s="6">
+        <v>16</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -2967,22 +3018,22 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N30" s="2">
-        <v>57.295769999999997</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
@@ -2991,14 +3042,11 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
-      <c r="S30" t="s">
-        <v>42</v>
-      </c>
       <c r="U30" s="2">
         <v>-1200</v>
       </c>
@@ -3014,7 +3062,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3025,8 +3073,8 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>43</v>
+      <c r="E31" s="6">
+        <v>17</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -3038,22 +3086,22 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N31" s="2">
-        <v>57.295769999999997</v>
+        <v>1</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
@@ -3062,14 +3110,11 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R31">
         <v>4</v>
       </c>
-      <c r="S31" t="s">
-        <v>42</v>
-      </c>
       <c r="U31" s="2">
         <v>-1200</v>
       </c>
@@ -3085,7 +3130,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3096,8 +3141,8 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>45</v>
+      <c r="E32" s="6">
+        <v>18</v>
       </c>
       <c r="F32">
         <v>-1</v>
@@ -3109,22 +3154,22 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N32" s="2">
-        <v>57.295769999999997</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
@@ -3133,14 +3178,11 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R32">
         <v>5</v>
       </c>
-      <c r="S32" t="s">
-        <v>42</v>
-      </c>
       <c r="U32" s="2">
         <v>-1200</v>
       </c>
@@ -3156,7 +3198,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3167,8 +3209,8 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>47</v>
+      <c r="E33" s="6">
+        <v>19</v>
       </c>
       <c r="F33">
         <v>-1</v>
@@ -3180,19 +3222,19 @@
         <v>-1</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N33" s="2">
         <v>1</v>
@@ -3204,14 +3246,11 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R33">
         <v>6</v>
       </c>
-      <c r="S33" t="s">
-        <v>41</v>
-      </c>
       <c r="U33" s="2">
         <v>-11800</v>
       </c>
@@ -3227,7 +3266,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3238,8 +3277,8 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34">
-        <v>49</v>
+      <c r="E34" s="6">
+        <v>20</v>
       </c>
       <c r="F34">
         <v>-1</v>
@@ -3251,19 +3290,19 @@
         <v>-1</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N34" s="2">
         <v>1</v>
@@ -3275,14 +3314,11 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
-      <c r="S34" t="s">
-        <v>41</v>
-      </c>
       <c r="U34" s="2">
         <v>-11800</v>
       </c>
@@ -3298,7 +3334,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3309,8 +3345,8 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>51</v>
+      <c r="E35" s="6">
+        <v>21</v>
       </c>
       <c r="F35">
         <v>-1</v>
@@ -3322,19 +3358,19 @@
         <v>-1</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N35" s="2">
         <v>1</v>
@@ -3346,14 +3382,11 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R35">
         <v>8</v>
       </c>
-      <c r="S35" t="s">
-        <v>41</v>
-      </c>
       <c r="U35" s="2">
         <v>-11800</v>
       </c>
@@ -3369,7 +3402,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3380,8 +3413,8 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>53</v>
+      <c r="E36" s="6">
+        <v>22</v>
       </c>
       <c r="F36">
         <v>-1</v>
@@ -3393,7 +3426,7 @@
         <v>-1</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -3405,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N36" s="2">
         <v>1</v>
@@ -3417,14 +3450,11 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R36">
         <v>9</v>
       </c>
-      <c r="S36" t="s">
-        <v>40</v>
-      </c>
       <c r="U36">
         <v>-220</v>
       </c>
@@ -3440,7 +3470,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3451,8 +3481,8 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>55</v>
+      <c r="E37" s="6">
+        <v>36</v>
       </c>
       <c r="F37">
         <v>-1</v>
@@ -3464,7 +3494,7 @@
         <v>-1</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -3476,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N37" s="2">
         <v>1</v>
@@ -3488,14 +3518,11 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R37">
         <v>10</v>
       </c>
-      <c r="S37" t="s">
-        <v>40</v>
-      </c>
       <c r="U37">
         <v>-110</v>
       </c>
@@ -3511,7 +3538,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3522,8 +3549,8 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>57</v>
+      <c r="E38" s="6">
+        <v>37</v>
       </c>
       <c r="F38">
         <v>-1</v>
@@ -3535,7 +3562,7 @@
         <v>-1</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -3547,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N38" s="2">
         <v>1</v>
@@ -3559,14 +3586,11 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R38">
         <v>11</v>
       </c>
-      <c r="S38" t="s">
-        <v>40</v>
-      </c>
       <c r="U38">
         <v>-110</v>
       </c>
@@ -3582,7 +3606,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3594,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F39">
         <v>-1</v>
@@ -3606,34 +3630,31 @@
         <v>-1</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N39" s="2">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>83</v>
-      </c>
-      <c r="S39" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3650,7 +3671,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3662,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F40">
         <v>-1</v>
@@ -3674,7 +3695,7 @@
         <v>-1</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -3698,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3715,7 +3736,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3727,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F41">
         <v>-1</v>
@@ -3739,7 +3760,7 @@
         <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -3763,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R41">
         <v>2</v>
@@ -3783,7 +3804,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3795,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F42">
         <v>-1</v>
@@ -3807,7 +3828,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -3831,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R42">
         <v>3</v>
@@ -3851,7 +3872,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3863,19 +3884,19 @@
         <v>1</v>
       </c>
       <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>-1</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43" t="s">
         <v>13</v>
-      </c>
-      <c r="F43">
-        <v>-1</v>
-      </c>
-      <c r="G43">
-        <v>-1</v>
-      </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -3899,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="Q43" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U43">
         <v>-1</v>
@@ -3922,7 +3943,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3934,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F44">
         <v>-1</v>
@@ -3946,7 +3967,7 @@
         <v>-1</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -3970,13 +3991,13 @@
         <v>1</v>
       </c>
       <c r="Q44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R44">
         <v>1</v>
       </c>
       <c r="S44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U44">
         <v>-1</v>
@@ -3993,7 +4014,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4005,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F45">
         <v>-1</v>
@@ -4017,7 +4038,7 @@
         <v>-1</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -4041,13 +4062,13 @@
         <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R45">
         <v>2</v>
       </c>
       <c r="S45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U45">
         <v>-1</v>
@@ -4064,7 +4085,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4076,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F46">
         <v>-1</v>
@@ -4088,7 +4109,7 @@
         <v>-1</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -4100,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N46" s="2">
         <v>1</v>
@@ -4112,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4130,12 +4151,12 @@
         <v>10</v>
       </c>
       <c r="Y46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4147,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F47">
         <v>-1</v>
@@ -4159,7 +4180,7 @@
         <v>-1</v>
       </c>
       <c r="I47" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -4183,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R47">
         <v>8</v>
@@ -4203,7 +4224,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4215,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F48">
         <v>-1</v>
@@ -4227,7 +4248,7 @@
         <v>-1</v>
       </c>
       <c r="I48" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -4251,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R48">
         <v>9</v>
@@ -4271,7 +4292,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4283,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>-1</v>
@@ -4295,7 +4316,7 @@
         <v>-1</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -4319,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R49">
         <v>10</v>
@@ -4339,7 +4360,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4351,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F50">
         <v>-1</v>
@@ -4363,7 +4384,7 @@
         <v>-1</v>
       </c>
       <c r="I50" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -4387,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R50">
         <v>11</v>
@@ -4407,7 +4428,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4419,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F51">
         <v>-1</v>
@@ -4431,7 +4452,7 @@
         <v>-1</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -4455,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -4475,7 +4496,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4487,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F52">
         <v>-1</v>
@@ -4499,7 +4520,7 @@
         <v>-1</v>
       </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -4523,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -4543,7 +4564,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4555,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F53">
         <v>-1</v>
@@ -4567,7 +4588,7 @@
         <v>-1</v>
       </c>
       <c r="I53" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -4591,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4611,7 +4632,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4623,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F54">
         <v>-1</v>
@@ -4635,7 +4656,7 @@
         <v>-1</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -4659,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4679,7 +4700,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4691,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F55">
         <v>-1</v>
@@ -4703,7 +4724,7 @@
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -4717,17 +4738,17 @@
       <c r="M55">
         <v>1</v>
       </c>
-      <c r="N55" s="2">
-        <v>1</v>
+      <c r="N55" s="5">
+        <v>256</v>
       </c>
       <c r="O55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="4">
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -4747,32 +4768,32 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>37</v>
+      </c>
+      <c r="F56">
+        <v>-1</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+      <c r="I56" t="s">
         <v>71</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>61</v>
-      </c>
-      <c r="F56">
-        <v>-1</v>
-      </c>
-      <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>97</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -4785,17 +4806,17 @@
       <c r="M56">
         <v>1</v>
       </c>
-      <c r="N56" s="2">
-        <v>2</v>
+      <c r="N56" s="5">
+        <v>512</v>
       </c>
       <c r="O56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="4">
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R56">
         <v>17</v>
@@ -4815,7 +4836,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4827,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F57">
         <v>-1</v>
@@ -4839,7 +4860,7 @@
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -4853,17 +4874,17 @@
       <c r="M57">
         <v>1</v>
       </c>
-      <c r="N57" s="2">
-        <v>4</v>
+      <c r="N57" s="5">
+        <v>1024</v>
       </c>
       <c r="O57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="4">
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R57">
         <v>18</v>
@@ -4883,7 +4904,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4895,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F58">
         <v>-1</v>
@@ -4907,7 +4928,7 @@
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -4921,17 +4942,17 @@
       <c r="M58">
         <v>1</v>
       </c>
-      <c r="N58" s="2">
-        <v>8</v>
+      <c r="N58" s="5">
+        <v>2048</v>
       </c>
       <c r="O58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="4">
         <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R58">
         <v>19</v>
@@ -4951,7 +4972,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4963,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <v>-1</v>
@@ -4975,7 +4996,7 @@
         <v>-1</v>
       </c>
       <c r="I59" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -4989,17 +5010,17 @@
       <c r="M59">
         <v>1</v>
       </c>
-      <c r="N59" s="2">
-        <v>16</v>
+      <c r="N59" s="5">
+        <v>4096</v>
       </c>
       <c r="O59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="4">
         <v>0</v>
       </c>
       <c r="Q59" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R59">
         <v>20</v>
@@ -5019,7 +5040,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5031,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F60">
         <v>-1</v>
@@ -5043,7 +5064,7 @@
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -5057,17 +5078,17 @@
       <c r="M60">
         <v>1</v>
       </c>
-      <c r="N60" s="2">
-        <v>32</v>
+      <c r="N60" s="5">
+        <v>8192</v>
       </c>
       <c r="O60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="4">
         <v>0</v>
       </c>
       <c r="Q60" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="R60">
         <v>21</v>
@@ -5087,7 +5108,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5099,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F61">
         <v>-1</v>
@@ -5111,7 +5132,7 @@
         <v>-1</v>
       </c>
       <c r="I61" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -5125,17 +5146,17 @@
       <c r="M61">
         <v>1</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="5">
+        <v>16384</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
         <v>64</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>90</v>
       </c>
       <c r="R61">
         <v>22</v>
@@ -5155,7 +5176,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5167,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F62">
         <v>-1</v>
@@ -5179,7 +5200,7 @@
         <v>-1</v>
       </c>
       <c r="I62" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -5193,17 +5214,20 @@
       <c r="M62">
         <v>1</v>
       </c>
-      <c r="N62" s="2">
-        <v>128</v>
+      <c r="N62" s="5">
+        <v>32768</v>
       </c>
       <c r="O62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="4">
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="R62">
+        <v>23</v>
       </c>
       <c r="U62">
         <v>-0.4</v>
@@ -5220,7 +5244,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5232,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F63">
         <v>-1</v>
@@ -5244,7 +5268,7 @@
         <v>-1</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
@@ -5268,13 +5292,13 @@
         <v>1</v>
       </c>
       <c r="Q63" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R63">
         <v>8</v>
       </c>
       <c r="S63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U63" s="2">
         <v>-5</v>
@@ -5291,7 +5315,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5303,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F64">
         <v>-1</v>
@@ -5315,7 +5339,7 @@
         <v>-1</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
@@ -5339,13 +5363,13 @@
         <v>0</v>
       </c>
       <c r="Q64" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R64">
         <v>12</v>
       </c>
       <c r="S64" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U64">
         <v>-10</v>
@@ -5362,7 +5386,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5374,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F65">
         <v>-1</v>
@@ -5386,7 +5410,7 @@
         <v>-1</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
@@ -5410,13 +5434,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R65">
         <v>13</v>
       </c>
       <c r="S65" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="U65">
         <v>-200</v>
@@ -5433,7 +5457,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5445,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66">
         <v>-1</v>
@@ -5457,7 +5481,7 @@
         <v>-1</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
@@ -5481,13 +5505,13 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R66">
         <v>14</v>
       </c>
       <c r="S66" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="U66">
         <v>-40</v>
@@ -5502,80 +5526,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>62</v>
-      </c>
-      <c r="F67">
-        <v>-1</v>
-      </c>
-      <c r="G67">
-        <v>-1</v>
-      </c>
-      <c r="H67">
+        <v>146</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9">
+        <v>38</v>
+      </c>
+      <c r="F67" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H67" s="9">
         <v>-1</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1</v>
       </c>
       <c r="L67" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>32</v>
-      </c>
-      <c r="N67" s="2">
-        <v>1</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>16</v>
+      </c>
+      <c r="N67" s="10">
+        <v>1</v>
+      </c>
+      <c r="O67" s="10">
+        <v>0</v>
+      </c>
+      <c r="P67" s="11">
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>53</v>
-      </c>
-      <c r="R67">
+        <v>45</v>
+      </c>
+      <c r="R67" s="9">
         <v>16</v>
       </c>
-      <c r="S67" t="s">
-        <v>36</v>
-      </c>
-      <c r="U67">
+      <c r="T67" s="12"/>
+      <c r="U67" s="7">
         <v>-100</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="7">
         <v>100</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="8">
         <v>-0.5</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5587,52 +5609,165 @@
         <v>1</v>
       </c>
       <c r="E68">
+        <v>42</v>
+      </c>
+      <c r="F68">
+        <v>-1</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="H68">
+        <v>-1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>32</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>45</v>
+      </c>
+      <c r="R68">
+        <v>17</v>
+      </c>
+      <c r="U68">
+        <v>-100</v>
+      </c>
+      <c r="V68">
+        <v>100</v>
+      </c>
+      <c r="W68">
+        <v>-0.5</v>
+      </c>
+      <c r="X68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
         <v>28</v>
       </c>
-      <c r="F68">
-        <v>-1</v>
-      </c>
-      <c r="G68">
-        <v>-1</v>
-      </c>
-      <c r="H68">
-        <v>-1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" t="b">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68">
+      <c r="F69">
+        <v>-1</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+      <c r="H69">
+        <v>-1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69">
         <v>16</v>
       </c>
-      <c r="N68" s="2">
-        <v>1</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>95</v>
-      </c>
-      <c r="S68" t="s">
+      <c r="N69" s="2">
+        <v>1</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="F70">
+        <v>-1</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>16</v>
+      </c>
+      <c r="N70" s="2">
+        <v>1</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="N77" s="1"/>
@@ -5813,6 +5948,11 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5822,13 +5962,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5850,72 +5990,72 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" t="s">
-        <v>84</v>
-      </c>
       <c r="V1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5939,7 +6079,7 @@
         <v>-1</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -5960,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R2">
         <v>3</v>
@@ -5980,7 +6120,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6004,7 +6144,7 @@
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -6025,13 +6165,13 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R3">
         <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -6042,7 +6182,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6066,7 +6206,7 @@
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -6090,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -6110,7 +6250,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6134,7 +6274,7 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -6158,16 +6298,10 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R5">
-        <v>9</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U5" s="2">
         <v>-0.1</v>
@@ -6184,7 +6318,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6208,7 +6342,7 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -6232,16 +6366,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R6">
         <v>11</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
       </c>
       <c r="U6" s="2">
         <v>-0.1</v>
@@ -6282,7 +6410,7 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -6306,13 +6434,13 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="U7">
         <v>-12</v>
@@ -6353,7 +6481,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -6377,13 +6505,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R8">
         <v>13</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="U8">
         <v>-12</v>
@@ -6424,7 +6552,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -6448,13 +6576,13 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R9">
         <v>14</v>
       </c>
       <c r="S9" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="U9">
         <v>-12</v>
@@ -6495,7 +6623,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -6519,13 +6647,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R10">
         <v>15</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U10">
         <v>-1000</v>
@@ -6566,7 +6694,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -6590,13 +6718,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R11">
         <v>16</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U11">
         <v>-1000</v>
@@ -6637,7 +6765,7 @@
         <v>-1</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -6661,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R12">
         <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="U12">
         <v>-1000</v>
@@ -6684,7 +6812,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6708,7 +6836,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -6732,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -6749,7 +6877,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6773,7 +6901,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -6797,12 +6925,12 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6826,7 +6954,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -6850,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="S15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U15">
         <v>-11</v>
@@ -6870,7 +6998,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6894,7 +7022,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -6918,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="S16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U16">
         <v>-11</v>
@@ -6938,7 +7066,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6962,7 +7090,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -6986,12 +7114,12 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7015,7 +7143,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -7039,12 +7167,12 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7068,7 +7196,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -7092,12 +7220,12 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7121,7 +7249,7 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -7145,12 +7273,12 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -7174,7 +7302,7 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -7198,13 +7326,13 @@
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="T21">
         <v>4</v>
@@ -7224,7 +7352,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -7248,7 +7376,7 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -7272,19 +7400,340 @@
         <v>2</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R22">
         <v>5</v>
       </c>
       <c r="S22" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="W22">
         <v>-5</v>
       </c>
       <c r="X22">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>151</v>
+      </c>
+      <c r="S23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>49</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/Dropbox/01_研究/01_projects/03_detonation engine/S-520-34/21_設計情報/05_計測系/QL/desql v2.7.5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2CAEB7-4DFD-7B45-9F92-3092EA36D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FF399-9F0C-EC42-9332-06E224430BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="500" windowWidth="17500" windowHeight="20500" activeTab="1" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="24340" windowHeight="20500" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="160">
   <si>
     <t>item</t>
   </si>
@@ -246,18 +246,9 @@
     <t>debug</t>
   </si>
   <si>
-    <t>W018</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>W009</t>
-  </si>
-  <si>
-    <t>W013</t>
-  </si>
-  <si>
     <t>W036</t>
   </si>
   <si>
@@ -483,9 +474,6 @@
     <t>Error code</t>
   </si>
   <si>
-    <t>W036 pcm</t>
-  </si>
-  <si>
     <t>Seq. status</t>
   </si>
   <si>
@@ -511,6 +499,21 @@
   </si>
   <si>
     <t>PCB PL04</t>
+  </si>
+  <si>
+    <t>SOD</t>
+  </si>
+  <si>
+    <t>SENS_NUM</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>CAM No</t>
+  </si>
+  <si>
+    <t>Fram No</t>
   </si>
 </sst>
 </file>
@@ -929,11 +932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
   <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q1" t="s">
         <v>46</v>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1116,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1290,7 +1293,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1577,7 +1580,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1648,7 +1651,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1790,7 +1793,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1861,7 +1864,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2145,7 +2148,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2219,7 +2222,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2432,7 +2435,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2790,7 +2793,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2994,7 +2997,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3062,7 +3065,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3266,7 +3269,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3334,7 +3337,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3402,7 +3405,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3538,7 +3541,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3606,7 +3609,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3671,7 +3674,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3760,7 +3763,7 @@
         <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -3828,7 +3831,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4014,7 +4017,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4085,7 +4088,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4156,7 +4159,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4180,7 +4183,7 @@
         <v>-1</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4248,7 +4251,7 @@
         <v>-1</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -4292,7 +4295,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4316,7 +4319,7 @@
         <v>-1</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4384,7 +4387,7 @@
         <v>-1</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -4428,7 +4431,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4452,7 +4455,7 @@
         <v>-1</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -4496,7 +4499,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4520,7 +4523,7 @@
         <v>-1</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -4564,7 +4567,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4588,7 +4591,7 @@
         <v>-1</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -4632,7 +4635,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4656,7 +4659,7 @@
         <v>-1</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J54" t="b">
         <v>0</v>
@@ -4700,7 +4703,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4724,7 +4727,7 @@
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -4768,7 +4771,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4792,7 +4795,7 @@
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" t="b">
         <v>0</v>
@@ -4836,7 +4839,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4860,7 +4863,7 @@
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4928,7 +4931,7 @@
         <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -4972,7 +4975,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4996,7 +4999,7 @@
         <v>-1</v>
       </c>
       <c r="I59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5064,7 +5067,7 @@
         <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
@@ -5108,7 +5111,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5132,7 +5135,7 @@
         <v>-1</v>
       </c>
       <c r="I61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -5176,7 +5179,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5200,7 +5203,7 @@
         <v>-1</v>
       </c>
       <c r="I62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J62" t="b">
         <v>0</v>
@@ -5244,7 +5247,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5315,7 +5318,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5386,7 +5389,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5457,7 +5460,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5528,7 +5531,7 @@
     </row>
     <row r="67" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
@@ -5597,7 +5600,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -5718,7 +5721,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5962,13 +5965,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6023,7 +6026,7 @@
         <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q1" t="s">
         <v>46</v>
@@ -6055,7 +6058,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6120,7 +6123,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6150,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -6182,7 +6185,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6250,7 +6253,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6318,7 +6321,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6440,7 +6443,7 @@
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U7">
         <v>-12</v>
@@ -6511,7 +6514,7 @@
         <v>13</v>
       </c>
       <c r="S8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U8">
         <v>-12</v>
@@ -6582,7 +6585,7 @@
         <v>14</v>
       </c>
       <c r="S9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U9">
         <v>-12</v>
@@ -6812,7 +6815,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6824,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -6889,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -6942,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -6960,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -7010,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -7028,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -7066,7 +7069,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7078,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -7119,7 +7122,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7131,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -7172,7 +7175,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7184,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>-1</v>
@@ -7225,7 +7228,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7237,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>-1</v>
@@ -7278,19 +7281,19 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -7311,60 +7314,39 @@
         <v>1</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
-        <v>7.6299999999999998E-5</v>
+      <c r="N21" s="2">
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R21">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s">
-        <v>96</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>-0.1</v>
-      </c>
-      <c r="V21">
-        <v>11</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -7391,25 +7373,34 @@
         <v>16</v>
       </c>
       <c r="N22" s="3">
-        <v>1.2283999999999999E-3</v>
+        <v>7.6299999999999998E-5</v>
       </c>
       <c r="O22" s="2">
-        <v>-44.078767300000003</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="s">
         <v>45</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>-0.1</v>
+      </c>
+      <c r="V22">
+        <v>11</v>
       </c>
       <c r="W22">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>10</v>
@@ -7417,19 +7408,19 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -7441,42 +7432,51 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1.2283999999999999E-3</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
+        <v>-44.078767300000003</v>
       </c>
       <c r="P23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="s">
-        <v>151</v>
+        <v>45</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
       </c>
       <c r="S23" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="W23">
+        <v>-5</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>-1</v>
@@ -7497,13 +7497,13 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -7521,15 +7521,18 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -7538,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <v>-1</v>
@@ -7550,7 +7553,7 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -7574,15 +7577,15 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7591,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>-1</v>
@@ -7603,7 +7606,7 @@
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -7627,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -7635,7 +7638,7 @@
         <v>154</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7644,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>-1</v>
@@ -7656,13 +7659,13 @@
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -7680,15 +7683,15 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -7697,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -7709,13 +7712,13 @@
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -7733,7 +7736,60 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>151</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>49</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A446BAE-BBCF-8B40-AAE2-4F3183ADD6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE37546-F9A0-4048-A1EE-77291D8AB57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="32320" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5445,7 +5445,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7309,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F30" s="6">
         <v>-1</v>
@@ -7321,13 +7321,13 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>34</v>
@@ -7374,7 +7374,7 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -7427,7 +7427,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -7480,7 +7480,7 @@
         <v>-1</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -7533,7 +7533,7 @@
         <v>-1</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J34" t="s">
         <v>34</v>
@@ -7586,7 +7586,7 @@
         <v>-1</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J35" t="s">
         <v>34</v>
@@ -7639,7 +7639,7 @@
         <v>-1</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J36" t="s">
         <v>34</v>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE37546-F9A0-4048-A1EE-77291D8AB57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABC3DD-B4D9-9D48-A4F5-96E1204712BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="32320" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="32320" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="153">
   <si>
     <t>item</t>
   </si>
@@ -128,18 +128,9 @@
     <t>true</t>
   </si>
   <si>
-    <t>n/a 1</t>
-  </si>
-  <si>
-    <t>p ana</t>
-  </si>
-  <si>
     <t>Pressure</t>
   </si>
   <si>
-    <t>n/a 2</t>
-  </si>
-  <si>
     <t>a_x,ci</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>omg_z,ci</t>
   </si>
   <si>
-    <t>Loop count (pcm)</t>
-  </si>
-  <si>
     <t>PCB header</t>
   </si>
   <si>
@@ -359,15 +347,6 @@
     <t>W 36</t>
   </si>
   <si>
-    <t>W 37</t>
-  </si>
-  <si>
-    <t>DES time</t>
-  </si>
-  <si>
-    <t>Stat. counter</t>
-  </si>
-  <si>
     <t>PDU inhibit 1</t>
   </si>
   <si>
@@ -455,36 +434,9 @@
     <t>W036</t>
   </si>
   <si>
-    <t>Val 1</t>
-  </si>
-  <si>
-    <t>Val 2</t>
-  </si>
-  <si>
-    <t>Val 3</t>
-  </si>
-  <si>
-    <t>Val 4</t>
-  </si>
-  <si>
-    <t>Val 5</t>
-  </si>
-  <si>
-    <t>Val 6</t>
-  </si>
-  <si>
-    <t>Val 7</t>
-  </si>
-  <si>
     <t>Val 8</t>
   </si>
   <si>
-    <t>W 40</t>
-  </si>
-  <si>
-    <t>W 41</t>
-  </si>
-  <si>
     <t>Cam PL01</t>
   </si>
   <si>
@@ -507,6 +459,27 @@
   </si>
   <si>
     <t>cam</t>
+  </si>
+  <si>
+    <t>MOV Close</t>
+  </si>
+  <si>
+    <t>MOV Open</t>
+  </si>
+  <si>
+    <t>MFV Close</t>
+  </si>
+  <si>
+    <t>MFV Open</t>
+  </si>
+  <si>
+    <t>OPV2</t>
+  </si>
+  <si>
+    <t>OVV</t>
+  </si>
+  <si>
+    <t>OFDV</t>
   </si>
 </sst>
 </file>
@@ -920,13 +893,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y105"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1001,7 @@
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1093,7 +1066,7 @@
     </row>
     <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -1155,7 +1128,7 @@
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1226,7 +1199,7 @@
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -1250,7 +1223,7 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -1274,13 +1247,13 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R5" s="6">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U5" s="7">
         <v>-0.1</v>
@@ -1297,7 +1270,7 @@
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -1321,7 +1294,7 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -1345,13 +1318,13 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R6" s="6">
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T6" s="6">
         <v>1</v>
@@ -1371,7 +1344,7 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -1395,7 +1368,7 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -1419,13 +1392,13 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R7" s="6">
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U7" s="7">
         <v>-0.5</v>
@@ -1442,7 +1415,7 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1466,7 +1439,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -1490,13 +1463,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R8" s="6">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U8" s="7">
         <v>-0.1</v>
@@ -1513,7 +1486,7 @@
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1537,7 +1510,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -1561,13 +1534,13 @@
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R9" s="6">
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U9" s="7">
         <v>-0.1</v>
@@ -1584,7 +1557,7 @@
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -1608,7 +1581,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -1632,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R10" s="6">
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U10" s="7">
         <v>-0.1</v>
@@ -1655,7 +1628,7 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -1679,7 +1652,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -1703,13 +1676,13 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R11" s="6">
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U11" s="7">
         <v>-0.1</v>
@@ -1726,7 +1699,7 @@
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -1750,7 +1723,7 @@
         <v>-1</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -1774,13 +1747,16 @@
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R12" s="6">
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="T12" s="4">
+        <v>2</v>
       </c>
       <c r="U12" s="7">
         <v>-0.1</v>
@@ -1797,7 +1773,7 @@
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1821,7 +1797,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -1845,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R13" s="6">
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U13" s="7">
         <v>-0.1</v>
@@ -1868,7 +1844,7 @@
     </row>
     <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -1892,7 +1868,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -1916,13 +1892,13 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R14" s="6">
         <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U14" s="7">
         <v>-0.1</v>
@@ -1939,7 +1915,7 @@
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -1963,7 +1939,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -1987,13 +1963,13 @@
         <v>2</v>
       </c>
       <c r="Q15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R15" s="6">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U15" s="7">
         <v>-22</v>
@@ -2010,7 +1986,7 @@
     </row>
     <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2034,7 +2010,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -2058,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R16" s="6">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U16" s="7">
         <v>-2500</v>
@@ -2081,7 +2057,7 @@
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -2105,7 +2081,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -2129,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R17" s="6">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U17" s="7">
         <v>-5</v>
@@ -2152,7 +2128,7 @@
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2176,7 +2152,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2200,17 +2176,15 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R18" s="6">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>101</v>
-      </c>
-      <c r="T18" s="6">
-        <v>2</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="T18" s="6"/>
       <c r="U18" s="7">
         <v>-5</v>
       </c>
@@ -2226,7 +2200,7 @@
     </row>
     <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2250,7 +2224,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -2274,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R19" s="6">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U19" s="7">
         <v>-5</v>
@@ -2297,7 +2271,7 @@
     </row>
     <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -2321,7 +2295,7 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -2345,13 +2319,13 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R20" s="6">
         <v>3</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U20" s="7">
         <v>-5</v>
@@ -2368,7 +2342,7 @@
     </row>
     <row r="21" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2392,7 +2366,7 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -2416,13 +2390,13 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R21" s="6">
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U21" s="7">
         <v>-5</v>
@@ -2439,7 +2413,7 @@
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2463,7 +2437,7 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -2487,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R22" s="6">
         <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T22" s="6">
         <v>3</v>
@@ -2513,7 +2487,7 @@
     </row>
     <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2537,7 +2511,7 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -2561,13 +2535,13 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R23" s="6">
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U23" s="7">
         <v>-20</v>
@@ -2584,7 +2558,7 @@
     </row>
     <row r="24" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -2608,7 +2582,7 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2632,13 +2606,13 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R24" s="6">
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U24" s="7">
         <v>-20</v>
@@ -2655,7 +2629,7 @@
     </row>
     <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2679,7 +2653,7 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
@@ -2703,13 +2677,13 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R25" s="6">
         <v>6</v>
       </c>
       <c r="S25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U25" s="7">
         <v>-5</v>
@@ -2726,7 +2700,7 @@
     </row>
     <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -2750,7 +2724,7 @@
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
@@ -2774,13 +2748,13 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R26" s="6">
         <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U26" s="7">
         <v>-5</v>
@@ -2797,7 +2771,7 @@
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2821,7 +2795,7 @@
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
@@ -2845,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R27" s="6">
         <v>0</v>
@@ -2863,146 +2837,146 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>37</v>
+      </c>
+      <c r="F28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7">
+        <v>1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>110</v>
+      </c>
+      <c r="R28" s="6">
+        <v>2</v>
+      </c>
+      <c r="U28" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="V28" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>37</v>
+      </c>
+      <c r="F29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>110</v>
+      </c>
+      <c r="R29" s="6">
+        <v>3</v>
+      </c>
+      <c r="U29" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="V29" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
-        <v>37</v>
-      </c>
-      <c r="F28" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="6">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="6">
-        <v>16</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>41</v>
-      </c>
-      <c r="R28" s="6">
-        <v>1</v>
-      </c>
-      <c r="U28" s="7">
-        <v>-500</v>
-      </c>
-      <c r="V28" s="6">
-        <v>500</v>
-      </c>
-      <c r="W28" s="6">
-        <v>-500</v>
-      </c>
-      <c r="X28" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>40</v>
-      </c>
-      <c r="F29" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="6">
-        <v>16</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>41</v>
-      </c>
-      <c r="R29" s="6">
-        <v>2</v>
-      </c>
-      <c r="U29" s="7">
-        <v>-500</v>
-      </c>
-      <c r="V29" s="6">
-        <v>500</v>
-      </c>
-      <c r="W29" s="6">
-        <v>-500</v>
-      </c>
-      <c r="X29" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>153</v>
-      </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
@@ -3012,8 +2986,8 @@
       <c r="D30" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="12">
-        <v>41</v>
+      <c r="E30" s="6">
+        <v>26</v>
       </c>
       <c r="F30" s="6">
         <v>-1</v>
@@ -3025,7 +2999,7 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -3037,39 +3011,42 @@
         <v>34</v>
       </c>
       <c r="M30" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N30" s="7">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O30" s="7">
         <v>0</v>
       </c>
       <c r="P30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="R30" s="6">
-        <v>3</v>
-      </c>
-      <c r="U30" s="7">
-        <v>-500</v>
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="6">
+        <v>-1</v>
       </c>
       <c r="V30" s="6">
-        <v>500</v>
-      </c>
-      <c r="W30" s="6">
-        <v>-500</v>
-      </c>
-      <c r="X30" s="6">
-        <v>500</v>
+        <v>31</v>
+      </c>
+      <c r="W30" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="X30" s="7">
+        <v>5.4</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -3081,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="6">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F31" s="6">
         <v>-1</v>
@@ -3093,7 +3070,7 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -3102,42 +3079,45 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M31" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="O31" s="7">
         <v>0</v>
       </c>
       <c r="P31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>41</v>
-      </c>
-      <c r="R31" s="4">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="R31" s="6">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>52</v>
       </c>
       <c r="U31" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V31" s="6">
-        <v>100</v>
-      </c>
-      <c r="W31" s="6">
-        <v>0</v>
-      </c>
-      <c r="X31" s="6">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="W31" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="X31" s="7">
+        <v>26.4</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3149,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F32" s="6">
         <v>-1</v>
@@ -3161,7 +3141,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -3170,37 +3150,40 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M32" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="O32" s="7">
         <v>0</v>
       </c>
       <c r="P32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R32" s="4">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="R32" s="6">
+        <v>2</v>
+      </c>
+      <c r="S32" t="s">
+        <v>52</v>
       </c>
       <c r="U32" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V32" s="6">
-        <v>80000</v>
-      </c>
-      <c r="W32" s="6">
-        <v>0</v>
-      </c>
-      <c r="X32" s="6">
-        <v>80000</v>
+        <v>31</v>
+      </c>
+      <c r="W32" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="X32" s="7">
+        <v>26.4</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" s="6">
         <v>-1</v>
@@ -3229,51 +3212,54 @@
         <v>-1</v>
       </c>
       <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="6">
+        <v>16</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>110</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="U33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V33" s="6">
+        <v>11</v>
+      </c>
+      <c r="W33" s="6">
+        <v>1</v>
+      </c>
+      <c r="X33" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y33" t="s">
         <v>116</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="6">
-        <v>1</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7">
-        <v>1</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>117</v>
-      </c>
-      <c r="R33" s="6">
-        <v>2</v>
-      </c>
-      <c r="U33" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V33" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="W33" s="6">
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
-        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -3297,7 +3283,7 @@
         <v>-1</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
         <v>27</v>
@@ -3312,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" s="7">
         <v>1</v>
@@ -3321,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R34" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U34" s="7">
         <v>-0.4</v>
@@ -3341,7 +3327,7 @@
     </row>
     <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -3353,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F35" s="6">
         <v>-1</v>
@@ -3365,54 +3351,51 @@
         <v>-1</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K35" s="6">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M35" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="O35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" t="s">
-        <v>56</v>
-      </c>
-      <c r="U35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="V35" s="6">
-        <v>31</v>
-      </c>
-      <c r="W35" s="7">
-        <v>4.5</v>
+        <v>9</v>
+      </c>
+      <c r="U35" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="V35" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0</v>
       </c>
       <c r="X35" s="7">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
@@ -3424,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="6">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F36" s="6">
         <v>-1</v>
@@ -3436,54 +3419,51 @@
         <v>-1</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K36" s="6">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M36" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="O36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="R36" s="6">
-        <v>1</v>
-      </c>
-      <c r="S36" t="s">
-        <v>56</v>
-      </c>
-      <c r="U36" s="6">
-        <v>-1</v>
-      </c>
-      <c r="V36" s="6">
-        <v>31</v>
-      </c>
-      <c r="W36" s="7">
-        <v>21.6</v>
+        <v>10</v>
+      </c>
+      <c r="U36" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="V36" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0</v>
       </c>
       <c r="X36" s="7">
-        <v>26.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -3495,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F37" s="6">
         <v>-1</v>
@@ -3507,54 +3487,51 @@
         <v>-1</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K37" s="6">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M37" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="O37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="R37" s="6">
-        <v>2</v>
-      </c>
-      <c r="S37" t="s">
-        <v>56</v>
-      </c>
-      <c r="U37" s="6">
-        <v>-1</v>
-      </c>
-      <c r="V37" s="6">
-        <v>31</v>
-      </c>
-      <c r="W37" s="7">
-        <v>21.6</v>
+        <v>11</v>
+      </c>
+      <c r="U37" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="V37" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0</v>
       </c>
       <c r="X37" s="7">
-        <v>26.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -3566,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="6">
         <v>-1</v>
@@ -3578,10 +3555,10 @@
         <v>-1</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K38" s="6">
         <v>1</v>
@@ -3590,11 +3567,11 @@
         <v>27</v>
       </c>
       <c r="M38" s="6">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
         <v>16</v>
       </c>
-      <c r="N38" s="7">
-        <v>1</v>
-      </c>
       <c r="O38" s="7">
         <v>1</v>
       </c>
@@ -3602,30 +3579,27 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R38" s="6">
-        <v>0</v>
-      </c>
-      <c r="U38" s="6">
-        <v>-1</v>
-      </c>
-      <c r="V38" s="6">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="U38" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="V38" s="7">
+        <v>1.4</v>
       </c>
       <c r="W38" s="6">
-        <v>1</v>
-      </c>
-      <c r="X38" s="6">
-        <v>10</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="X38" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -3649,7 +3623,7 @@
         <v>-1</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J39" t="s">
         <v>27</v>
@@ -3664,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="O39" s="7">
         <v>1</v>
@@ -3673,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R39" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U39" s="7">
         <v>-0.4</v>
@@ -3693,7 +3667,7 @@
     </row>
     <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
@@ -3717,7 +3691,7 @@
         <v>-1</v>
       </c>
       <c r="I40" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J40" t="s">
         <v>27</v>
@@ -3732,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="O40" s="7">
         <v>1</v>
@@ -3741,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R40" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="U40" s="7">
         <v>-0.4</v>
@@ -3761,7 +3735,7 @@
     </row>
     <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -3785,7 +3759,7 @@
         <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J41" t="s">
         <v>27</v>
@@ -3800,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="O41" s="7">
         <v>1</v>
@@ -3809,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R41" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U41" s="7">
         <v>-0.4</v>
@@ -3829,7 +3803,7 @@
     </row>
     <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -3841,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="6">
         <v>-1</v>
@@ -3853,7 +3827,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J42" t="s">
         <v>27</v>
@@ -3867,8 +3841,8 @@
       <c r="M42" s="6">
         <v>1</v>
       </c>
-      <c r="N42" s="7">
-        <v>8</v>
+      <c r="N42" s="11">
+        <v>1</v>
       </c>
       <c r="O42" s="7">
         <v>1</v>
@@ -3877,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R42" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U42" s="7">
         <v>-0.4</v>
@@ -3897,7 +3871,7 @@
     </row>
     <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -3909,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" s="6">
         <v>-1</v>
@@ -3921,7 +3895,7 @@
         <v>-1</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J43" t="s">
         <v>27</v>
@@ -3935,8 +3909,8 @@
       <c r="M43" s="6">
         <v>1</v>
       </c>
-      <c r="N43" s="7">
-        <v>16</v>
+      <c r="N43" s="11">
+        <v>2</v>
       </c>
       <c r="O43" s="7">
         <v>1</v>
@@ -3945,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R43" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U43" s="7">
         <v>-0.4</v>
@@ -3965,7 +3939,7 @@
     </row>
     <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -3977,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="6">
         <v>-1</v>
@@ -3989,7 +3963,7 @@
         <v>-1</v>
       </c>
       <c r="I44" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
         <v>27</v>
@@ -4003,8 +3977,8 @@
       <c r="M44" s="6">
         <v>1</v>
       </c>
-      <c r="N44" s="7">
-        <v>32</v>
+      <c r="N44" s="11">
+        <v>4</v>
       </c>
       <c r="O44" s="7">
         <v>1</v>
@@ -4013,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R44" s="6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U44" s="7">
         <v>-0.4</v>
@@ -4033,7 +4007,7 @@
     </row>
     <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -4045,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="6">
         <v>-1</v>
@@ -4057,7 +4031,7 @@
         <v>-1</v>
       </c>
       <c r="I45" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
         <v>27</v>
@@ -4071,8 +4045,8 @@
       <c r="M45" s="6">
         <v>1</v>
       </c>
-      <c r="N45" s="7">
-        <v>64</v>
+      <c r="N45" s="11">
+        <v>8</v>
       </c>
       <c r="O45" s="7">
         <v>1</v>
@@ -4081,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R45" s="6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U45" s="7">
         <v>-0.4</v>
@@ -4101,7 +4075,7 @@
     </row>
     <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B46" s="6">
         <v>1</v>
@@ -4113,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="6">
         <v>-1</v>
@@ -4125,7 +4099,7 @@
         <v>-1</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
         <v>27</v>
@@ -4139,8 +4113,8 @@
       <c r="M46" s="6">
         <v>1</v>
       </c>
-      <c r="N46" s="7">
-        <v>128</v>
+      <c r="N46" s="11">
+        <v>16</v>
       </c>
       <c r="O46" s="7">
         <v>1</v>
@@ -4149,10 +4123,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R46" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U46" s="7">
         <v>-0.4</v>
@@ -4169,7 +4143,7 @@
     </row>
     <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -4193,7 +4167,7 @@
         <v>-1</v>
       </c>
       <c r="I47" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
         <v>27</v>
@@ -4208,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="11">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="O47" s="7">
         <v>1</v>
@@ -4217,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R47" s="6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U47" s="7">
         <v>-0.4</v>
@@ -4237,7 +4211,7 @@
     </row>
     <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B48" s="6">
         <v>1</v>
@@ -4261,7 +4235,7 @@
         <v>-1</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J48" t="s">
         <v>27</v>
@@ -4276,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="11">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="O48" s="7">
         <v>1</v>
@@ -4285,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R48" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U48" s="7">
         <v>-0.4</v>
@@ -4305,7 +4279,7 @@
     </row>
     <row r="49" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B49" s="6">
         <v>1</v>
@@ -4329,7 +4303,7 @@
         <v>-1</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J49" t="s">
         <v>27</v>
@@ -4344,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="11">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="O49" s="7">
         <v>1</v>
@@ -4353,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R49" s="6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U49" s="7">
         <v>-0.4</v>
@@ -4367,13 +4341,13 @@
       <c r="W49" s="6">
         <v>0</v>
       </c>
-      <c r="X49" s="7">
-        <v>0.5</v>
+      <c r="X49" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
@@ -4385,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F50" s="6">
         <v>-1</v>
@@ -4397,51 +4371,54 @@
         <v>-1</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K50" s="6">
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M50" s="6">
-        <v>1</v>
-      </c>
-      <c r="N50" s="11">
+        <v>12</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>63</v>
+      </c>
+      <c r="R50" s="6">
         <v>8</v>
       </c>
-      <c r="O50" s="7">
-        <v>1</v>
-      </c>
-      <c r="P50" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>117</v>
-      </c>
-      <c r="R50" s="6">
-        <v>19</v>
+      <c r="S50" t="s">
+        <v>97</v>
       </c>
       <c r="U50" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V50" s="7">
-        <v>1.4</v>
+        <v>-5</v>
+      </c>
+      <c r="V50" s="6">
+        <v>45</v>
       </c>
       <c r="W50" s="6">
         <v>0</v>
       </c>
-      <c r="X50" s="7">
-        <v>0.5</v>
+      <c r="X50" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -4453,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F51" s="6">
         <v>-1</v>
@@ -4465,10 +4442,10 @@
         <v>-1</v>
       </c>
       <c r="I51" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K51" s="6">
         <v>1</v>
@@ -4477,39 +4454,42 @@
         <v>27</v>
       </c>
       <c r="M51" s="6">
-        <v>1</v>
-      </c>
-      <c r="N51" s="11">
         <v>16</v>
       </c>
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
       <c r="O51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="8">
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="R51" s="6">
-        <v>20</v>
-      </c>
-      <c r="U51" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V51" s="7">
-        <v>1.4</v>
+        <v>12</v>
+      </c>
+      <c r="S51" t="s">
+        <v>127</v>
+      </c>
+      <c r="U51" s="6">
+        <v>-10</v>
+      </c>
+      <c r="V51" s="6">
+        <v>110</v>
       </c>
       <c r="W51" s="6">
-        <v>0</v>
-      </c>
-      <c r="X51" s="7">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="X51" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
@@ -4521,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" s="6">
         <v>-1</v>
@@ -4533,10 +4513,10 @@
         <v>-1</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K52" s="6">
         <v>1</v>
@@ -4545,39 +4525,42 @@
         <v>27</v>
       </c>
       <c r="M52" s="6">
-        <v>1</v>
-      </c>
-      <c r="N52" s="11">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1</v>
       </c>
       <c r="O52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="8">
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="R52" s="6">
-        <v>21</v>
-      </c>
-      <c r="U52" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V52" s="7">
-        <v>1.4</v>
+        <v>13</v>
+      </c>
+      <c r="S52" t="s">
+        <v>129</v>
+      </c>
+      <c r="U52" s="6">
+        <v>-200</v>
+      </c>
+      <c r="V52" s="6">
+        <v>4200</v>
       </c>
       <c r="W52" s="6">
-        <v>0</v>
-      </c>
-      <c r="X52" s="7">
-        <v>0.5</v>
+        <v>2000</v>
+      </c>
+      <c r="X52" s="6">
+        <v>5000</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B53" s="6">
         <v>1</v>
@@ -4589,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F53" s="6">
         <v>-1</v>
@@ -4601,10 +4584,10 @@
         <v>-1</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K53" s="6">
         <v>1</v>
@@ -4613,107 +4596,111 @@
         <v>27</v>
       </c>
       <c r="M53" s="6">
-        <v>1</v>
-      </c>
-      <c r="N53" s="11">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1</v>
       </c>
       <c r="O53" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="R53" s="6">
-        <v>22</v>
-      </c>
-      <c r="U53" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V53" s="7">
-        <v>1.4</v>
+        <v>14</v>
+      </c>
+      <c r="S53" t="s">
+        <v>131</v>
+      </c>
+      <c r="U53" s="6">
+        <v>-40</v>
+      </c>
+      <c r="V53" s="6">
+        <v>540</v>
       </c>
       <c r="W53" s="6">
-        <v>0</v>
-      </c>
-      <c r="X53" s="7">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="X53" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6">
-        <v>36</v>
-      </c>
-      <c r="F54" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H54" s="6">
+        <v>132</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13">
+        <v>38</v>
+      </c>
+      <c r="F54" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="13">
         <v>-1</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="6">
+        <v>34</v>
+      </c>
+      <c r="K54" s="13">
         <v>1</v>
       </c>
       <c r="L54" t="s">
         <v>27</v>
       </c>
-      <c r="M54" s="6">
-        <v>1</v>
-      </c>
-      <c r="N54" s="11">
-        <v>128</v>
-      </c>
-      <c r="O54" s="7">
-        <v>1</v>
-      </c>
-      <c r="P54" s="8">
+      <c r="M54" s="13">
+        <v>16</v>
+      </c>
+      <c r="N54" s="14">
+        <v>1</v>
+      </c>
+      <c r="O54" s="14">
+        <v>0</v>
+      </c>
+      <c r="P54" s="15">
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>117</v>
-      </c>
-      <c r="R54" s="6">
-        <v>23</v>
-      </c>
-      <c r="U54" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V54" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="W54" s="6">
-        <v>0</v>
-      </c>
-      <c r="X54" s="6">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="R54" s="13">
+        <v>16</v>
+      </c>
+      <c r="T54" s="12"/>
+      <c r="U54" s="6">
+        <v>-100</v>
+      </c>
+      <c r="V54" s="6">
+        <v>100</v>
+      </c>
+      <c r="W54" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="X54" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B55" s="6">
         <v>1</v>
@@ -4725,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F55" s="6">
         <v>-1</v>
@@ -4737,19 +4724,19 @@
         <v>-1</v>
       </c>
       <c r="I55" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" t="s">
         <v>34</v>
       </c>
       <c r="M55" s="6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N55" s="7">
         <v>1</v>
@@ -4758,33 +4745,30 @@
         <v>0</v>
       </c>
       <c r="P55" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R55" s="6">
-        <v>8</v>
-      </c>
-      <c r="S55" t="s">
-        <v>101</v>
-      </c>
-      <c r="U55" s="7">
-        <v>-5</v>
+        <v>17</v>
+      </c>
+      <c r="U55" s="6">
+        <v>-100</v>
       </c>
       <c r="V55" s="6">
-        <v>45</v>
-      </c>
-      <c r="W55" s="6">
-        <v>0</v>
-      </c>
-      <c r="X55" s="6">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0</v>
+      </c>
+      <c r="X55" s="7">
+        <v>10000000</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B56" s="6">
         <v>1</v>
@@ -4796,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F56" s="6">
         <v>-1</v>
@@ -4808,7 +4792,7 @@
         <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s">
         <v>34</v>
@@ -4832,30 +4816,12 @@
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>67</v>
-      </c>
-      <c r="R56" s="6">
-        <v>12</v>
-      </c>
-      <c r="S56" t="s">
-        <v>134</v>
-      </c>
-      <c r="U56" s="6">
-        <v>-10</v>
-      </c>
-      <c r="V56" s="6">
-        <v>110</v>
-      </c>
-      <c r="W56" s="6">
-        <v>1</v>
-      </c>
-      <c r="X56" s="6">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -4867,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F57" s="6">
         <v>-1</v>
@@ -4879,7 +4845,7 @@
         <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s">
         <v>34</v>
@@ -4903,347 +4869,40 @@
         <v>0</v>
       </c>
       <c r="Q57" t="s">
-        <v>67</v>
-      </c>
-      <c r="R57" s="6">
-        <v>13</v>
-      </c>
-      <c r="S57" t="s">
-        <v>136</v>
-      </c>
-      <c r="U57" s="6">
-        <v>-200</v>
-      </c>
-      <c r="V57" s="6">
-        <v>4200</v>
-      </c>
-      <c r="W57" s="6">
-        <v>2000</v>
-      </c>
-      <c r="X57" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B58" s="6">
-        <v>1</v>
-      </c>
-      <c r="C58" s="6">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6">
-        <v>35</v>
-      </c>
-      <c r="F58" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G58" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H58" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J58" t="s">
-        <v>34</v>
-      </c>
-      <c r="K58" s="6">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="6">
-        <v>9</v>
-      </c>
-      <c r="N58" s="7">
-        <v>1</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-      <c r="P58" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>67</v>
-      </c>
-      <c r="R58" s="6">
-        <v>14</v>
-      </c>
-      <c r="S58" t="s">
-        <v>138</v>
-      </c>
-      <c r="U58" s="6">
-        <v>-40</v>
-      </c>
-      <c r="V58" s="6">
-        <v>540</v>
-      </c>
-      <c r="W58" s="6">
-        <v>20</v>
-      </c>
-      <c r="X58" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="13">
-        <v>1</v>
-      </c>
-      <c r="C59" s="13">
-        <v>0</v>
-      </c>
-      <c r="D59" s="13">
-        <v>1</v>
-      </c>
-      <c r="E59" s="13">
-        <v>38</v>
-      </c>
-      <c r="F59" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G59" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H59" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>60</v>
-      </c>
-      <c r="J59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" s="13">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="13">
-        <v>16</v>
-      </c>
-      <c r="N59" s="14">
-        <v>1</v>
-      </c>
-      <c r="O59" s="14">
-        <v>0</v>
-      </c>
-      <c r="P59" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>67</v>
-      </c>
-      <c r="R59" s="13">
-        <v>16</v>
-      </c>
-      <c r="T59" s="12"/>
-      <c r="U59" s="6">
-        <v>-100</v>
-      </c>
-      <c r="V59" s="6">
-        <v>100</v>
-      </c>
-      <c r="W59" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="X59" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="6">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6">
-        <v>42</v>
-      </c>
-      <c r="F60" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G60" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H60" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>141</v>
-      </c>
-      <c r="J60" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60" s="6">
-        <v>2</v>
-      </c>
-      <c r="L60" t="s">
-        <v>34</v>
-      </c>
-      <c r="M60" s="6">
-        <v>32</v>
-      </c>
-      <c r="N60" s="7">
-        <v>1</v>
-      </c>
-      <c r="O60" s="7">
-        <v>0</v>
-      </c>
-      <c r="P60" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>67</v>
-      </c>
-      <c r="R60" s="6">
-        <v>17</v>
-      </c>
-      <c r="U60" s="6">
-        <v>-100</v>
-      </c>
-      <c r="V60" s="6">
-        <v>100</v>
-      </c>
-      <c r="W60" s="7">
-        <v>0</v>
-      </c>
-      <c r="X60" s="7">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="6">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6">
-        <v>28</v>
-      </c>
-      <c r="F61" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G61" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H61" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>60</v>
-      </c>
-      <c r="J61" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" s="6">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" s="6">
-        <v>16</v>
-      </c>
-      <c r="N61" s="7">
-        <v>1</v>
-      </c>
-      <c r="O61" s="7">
-        <v>0</v>
-      </c>
-      <c r="P61" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="6">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="6">
-        <v>36</v>
-      </c>
-      <c r="F62" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G62" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H62" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>60</v>
-      </c>
-      <c r="J62" t="s">
-        <v>34</v>
-      </c>
-      <c r="K62" s="6">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="6">
-        <v>16</v>
-      </c>
-      <c r="N62" s="7">
-        <v>1</v>
-      </c>
-      <c r="O62" s="7">
-        <v>0</v>
-      </c>
-      <c r="P62" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>61</v>
-      </c>
-    </row>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+    </row>
+    <row r="65" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+    </row>
+    <row r="66" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+    </row>
+    <row r="67" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+    </row>
+    <row r="68" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+    </row>
     <row r="69" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
@@ -5403,31 +5062,6 @@
       <c r="N100" s="16"/>
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
-    </row>
-    <row r="101" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-    </row>
-    <row r="102" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-    </row>
-    <row r="103" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-    </row>
-    <row r="104" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-    </row>
-    <row r="105" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5439,9 +5073,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5741,7 +5375,7 @@
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
@@ -5753,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F5" s="6">
         <v>-1</v>
@@ -5765,7 +5399,7 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -5777,51 +5411,54 @@
         <v>27</v>
       </c>
       <c r="M5" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>2.5</v>
+        <v>-7.3485037299999998E-3</v>
       </c>
       <c r="O5" s="7">
-        <v>-0.25</v>
+        <v>224.638244528</v>
       </c>
       <c r="P5" s="8">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" s="6">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="6">
+        <v>-12</v>
+      </c>
+      <c r="V5" s="6">
+        <v>12</v>
+      </c>
+      <c r="W5" s="6">
+        <v>-10</v>
+      </c>
+      <c r="X5" s="6">
         <v>10</v>
-      </c>
-      <c r="U5" s="7">
-        <v>-0.1</v>
-      </c>
-      <c r="V5" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F6" s="6">
         <v>-1</v>
@@ -5833,7 +5470,7 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -5845,39 +5482,42 @@
         <v>27</v>
       </c>
       <c r="M6" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>2.5</v>
+        <v>-7.2561042000000003E-3</v>
       </c>
       <c r="O6" s="7">
-        <v>-0.25</v>
+        <v>214.35439313200001</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="6">
-        <v>11</v>
-      </c>
-      <c r="U6" s="7">
-        <v>-0.1</v>
-      </c>
-      <c r="V6" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0.12</v>
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="6">
+        <v>-12</v>
+      </c>
+      <c r="V6" s="6">
+        <v>12</v>
+      </c>
+      <c r="W6" s="6">
+        <v>-10</v>
+      </c>
+      <c r="X6" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -5889,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
         <v>-1</v>
@@ -5901,7 +5541,7 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -5916,22 +5556,22 @@
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>-7.3485037299999998E-3</v>
+        <v>7.4936784300000002E-3</v>
       </c>
       <c r="O7" s="7">
-        <v>224.638244528</v>
+        <v>-230.94580335500001</v>
       </c>
       <c r="P7" s="8">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R7" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U7" s="6">
         <v>-12</v>
@@ -5948,7 +5588,7 @@
     </row>
     <row r="8" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -5960,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6">
         <v>-1</v>
@@ -5972,7 +5612,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -5987,39 +5627,39 @@
         <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>-7.2561042000000003E-3</v>
+        <v>3.1028564000000002E-2</v>
       </c>
       <c r="O8" s="7">
-        <v>214.35439313200001</v>
+        <v>-996.66850999999997</v>
       </c>
       <c r="P8" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R8" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U8" s="6">
-        <v>-12</v>
+        <v>-1000</v>
       </c>
       <c r="V8" s="6">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="W8" s="6">
-        <v>-10</v>
+        <v>-720</v>
       </c>
       <c r="X8" s="6">
-        <v>10</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
@@ -6031,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6">
         <v>-1</v>
@@ -6043,7 +5683,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -6058,39 +5698,39 @@
         <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>7.4936784300000002E-3</v>
+        <v>3.0411868000000002E-2</v>
       </c>
       <c r="O9" s="7">
-        <v>-230.94580335500001</v>
+        <v>-984.91875000000005</v>
       </c>
       <c r="P9" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R9" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U9" s="6">
-        <v>-12</v>
+        <v>-1000</v>
       </c>
       <c r="V9" s="6">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="W9" s="6">
-        <v>-10</v>
+        <v>-720</v>
       </c>
       <c r="X9" s="6">
-        <v>10</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
         <v>2</v>
@@ -6102,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6">
         <v>-1</v>
@@ -6114,7 +5754,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -6129,22 +5769,22 @@
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>3.1028564000000002E-2</v>
+        <v>2.9739155999999999E-2</v>
       </c>
       <c r="O10" s="7">
-        <v>-996.66850999999997</v>
+        <v>-920.69453999999996</v>
       </c>
       <c r="P10" s="8">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R10" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U10" s="6">
         <v>-1000</v>
@@ -6161,37 +5801,37 @@
     </row>
     <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K11" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -6200,110 +5840,89 @@
         <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>3.0411868000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
-        <v>-984.91875000000005</v>
+        <v>0</v>
       </c>
       <c r="P11" s="8">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="6">
-        <v>16</v>
-      </c>
-      <c r="S11" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="6">
-        <v>-1000</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W11" s="6">
-        <v>-720</v>
-      </c>
-      <c r="X11" s="6">
-        <v>720</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="6">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>34</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="6">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2.9739155999999999E-2</v>
-      </c>
-      <c r="O12" s="7">
-        <v>-920.69453999999996</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="6">
-        <v>17</v>
-      </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U12" s="6">
-        <v>-1000</v>
+        <v>-11</v>
       </c>
       <c r="V12" s="6">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="W12" s="6">
-        <v>-720</v>
+        <v>-9</v>
       </c>
       <c r="X12" s="6">
-        <v>720</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -6315,60 +5934,63 @@
         <v>1</v>
       </c>
       <c r="E13" s="6">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="6">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="6">
+        <v>-11</v>
+      </c>
+      <c r="V13" s="6">
         <v>11</v>
       </c>
-      <c r="F13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="6">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6">
-        <v>70000</v>
-      </c>
       <c r="W13" s="6">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="X13" s="6">
-        <v>70000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -6392,19 +6014,19 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K14" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
       </c>
       <c r="M14" s="6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
@@ -6416,12 +6038,12 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -6433,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6">
         <v>-1</v>
@@ -6445,19 +6067,19 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K15" s="6">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M15" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N15" s="7">
         <v>1</v>
@@ -6469,95 +6091,65 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" s="6">
-        <v>-11</v>
-      </c>
-      <c r="V15" s="6">
-        <v>11</v>
-      </c>
-      <c r="W15" s="6">
-        <v>-9</v>
-      </c>
-      <c r="X15" s="6">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="6">
+        <v>16</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>41</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="6">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>53</v>
-      </c>
-      <c r="S16" t="s">
-        <v>56</v>
-      </c>
-      <c r="U16" s="6">
-        <v>-11</v>
-      </c>
-      <c r="V16" s="6">
-        <v>11</v>
-      </c>
-      <c r="W16" s="6">
-        <v>-9</v>
-      </c>
-      <c r="X16" s="6">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -6569,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F17" s="6">
         <v>-1</v>
@@ -6581,19 +6173,19 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
       </c>
       <c r="K17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M17" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
         <v>1</v>
@@ -6605,12 +6197,12 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -6622,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6">
         <v>-1</v>
@@ -6634,7 +6226,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
@@ -6643,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M18" s="6">
         <v>16</v>
@@ -6658,24 +6250,24 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
       </c>
       <c r="E19" s="6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6">
         <v>-1</v>
@@ -6687,7 +6279,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -6701,25 +6293,46 @@
       <c r="M19" s="6">
         <v>16</v>
       </c>
-      <c r="N19" s="7">
-        <v>1</v>
+      <c r="N19" s="9">
+        <v>7.6299999999999998E-5</v>
       </c>
       <c r="O19" s="7">
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R19" s="6">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="6">
+        <v>4</v>
+      </c>
+      <c r="U19" s="7">
+        <v>-0.1</v>
+      </c>
+      <c r="V19" s="6">
+        <v>11</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -6728,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F20" s="6">
         <v>-1</v>
@@ -6740,7 +6353,7 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
@@ -6749,27 +6362,39 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M20" s="6">
         <v>16</v>
       </c>
-      <c r="N20" s="7">
-        <v>1</v>
+      <c r="N20" s="9">
+        <v>1.2283999999999999E-3</v>
       </c>
       <c r="O20" s="7">
-        <v>0</v>
+        <v>-44.078767300000003</v>
       </c>
       <c r="P20" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R20" s="6">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="6">
+        <v>-5</v>
+      </c>
+      <c r="X20" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -6781,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="6">
         <v>-1</v>
@@ -6793,19 +6418,19 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N21" s="7">
         <v>1</v>
@@ -6817,24 +6442,27 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="S21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C22" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="6">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F22" s="6">
         <v>-1</v>
@@ -6846,122 +6474,95 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
         <v>34</v>
       </c>
       <c r="K22" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M22" s="6">
-        <v>16</v>
-      </c>
-      <c r="N22" s="9">
-        <v>7.6299999999999998E-5</v>
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1</v>
       </c>
       <c r="O22" s="7">
         <v>0</v>
       </c>
       <c r="P22" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>67</v>
-      </c>
-      <c r="R22" s="6">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="S22" t="s">
-        <v>68</v>
-      </c>
-      <c r="T22" s="6">
-        <v>4</v>
-      </c>
-      <c r="U22" s="7">
-        <v>-0.1</v>
-      </c>
-      <c r="V22" s="6">
-        <v>11</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>26</v>
+      </c>
+      <c r="F23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="6">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4</v>
-      </c>
-      <c r="F23" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="6">
-        <v>16</v>
-      </c>
-      <c r="N23" s="9">
-        <v>1.2283999999999999E-3</v>
+      <c r="N23" s="7">
+        <v>1</v>
       </c>
       <c r="O23" s="7">
-        <v>-44.078767300000003</v>
+        <v>0</v>
       </c>
       <c r="P23" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R23" s="6">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="S23" t="s">
-        <v>68</v>
-      </c>
-      <c r="W23" s="6">
-        <v>-5</v>
-      </c>
-      <c r="X23" s="6">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -6973,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F24" s="6">
         <v>-1</v>
@@ -6985,13 +6586,13 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
       </c>
       <c r="K24" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L24" t="s">
         <v>34</v>
@@ -7009,15 +6610,15 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -7029,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F25" s="6">
         <v>-1</v>
@@ -7041,13 +6642,13 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
       </c>
       <c r="K25" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L25" t="s">
         <v>34</v>
@@ -7065,15 +6666,15 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -7085,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6">
         <v>-1</v>
@@ -7097,13 +6698,13 @@
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
       </c>
       <c r="K26" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L26" t="s">
         <v>34</v>
@@ -7121,15 +6722,15 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -7141,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="6">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F27" s="6">
         <v>-1</v>
@@ -7153,19 +6754,19 @@
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>34</v>
       </c>
       <c r="M27" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N27" s="7">
         <v>1</v>
@@ -7177,15 +6778,12 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>72</v>
-      </c>
-      <c r="S27" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -7197,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="6">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F28" s="6">
         <v>-1</v>
@@ -7209,19 +6807,19 @@
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
       </c>
       <c r="K28" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L28" t="s">
         <v>34</v>
       </c>
       <c r="M28" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N28" s="7">
         <v>1</v>
@@ -7233,15 +6831,12 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>72</v>
-      </c>
-      <c r="S28" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -7253,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F29" s="6">
         <v>-1</v>
@@ -7265,19 +6860,19 @@
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
       </c>
       <c r="K29" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L29" t="s">
         <v>34</v>
       </c>
       <c r="M29" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N29" s="7">
         <v>1</v>
@@ -7289,15 +6884,12 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>72</v>
-      </c>
-      <c r="S29" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -7309,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F30" s="6">
         <v>-1</v>
@@ -7321,13 +6913,13 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L30" t="s">
         <v>34</v>
@@ -7345,12 +6937,12 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -7362,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="6">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F31" s="6">
         <v>-1</v>
@@ -7374,13 +6966,13 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
       </c>
       <c r="K31" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L31" t="s">
         <v>34</v>
@@ -7398,12 +6990,12 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -7415,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F32" s="6">
         <v>-1</v>
@@ -7427,13 +7019,13 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
@@ -7451,12 +7043,12 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -7468,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="6">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F33" s="6">
         <v>-1</v>
@@ -7480,13 +7072,13 @@
         <v>-1</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
       </c>
       <c r="K33" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L33" t="s">
         <v>34</v>
@@ -7504,166 +7096,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>41</v>
-      </c>
-      <c r="F34" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" s="6">
-        <v>7</v>
-      </c>
-      <c r="L34" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" s="6">
-        <v>16</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>49</v>
-      </c>
-      <c r="F35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="6">
-        <v>7</v>
-      </c>
-      <c r="L35" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="6">
-        <v>16</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>57</v>
-      </c>
-      <c r="F36" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>161</v>
-      </c>
-      <c r="J36" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="6">
-        <v>7</v>
-      </c>
-      <c r="L36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="6">
-        <v>16</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABC3DD-B4D9-9D48-A4F5-96E1204712BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD914D00-3D4C-A64A-B611-D9DC180479F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="500" windowWidth="32320" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -588,6 +588,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +897,10 @@
   <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="X9" s="7">
-        <v>14.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,10 +1621,10 @@
         <v>3.8</v>
       </c>
       <c r="W10" s="7">
-        <v>2</v>
+        <v>0.08</v>
       </c>
       <c r="X10" s="7">
-        <v>3.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1691,10 +1692,10 @@
         <v>15.5</v>
       </c>
       <c r="W11" s="7">
-        <v>12</v>
+        <v>0.08</v>
       </c>
       <c r="X11" s="7">
-        <v>14.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,10 +1766,10 @@
         <v>0.9</v>
       </c>
       <c r="W12" s="7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="X12" s="7">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1836,10 +1837,10 @@
         <v>0.9</v>
       </c>
       <c r="W13" s="7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="X13" s="7">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1907,10 +1908,10 @@
         <v>0.9</v>
       </c>
       <c r="W14" s="7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="X14" s="7">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2120,7 +2121,7 @@
         <v>45</v>
       </c>
       <c r="W17" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17" s="6">
         <v>32</v>
@@ -2192,7 +2193,7 @@
         <v>45</v>
       </c>
       <c r="W18" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X18" s="6">
         <v>32</v>
@@ -2263,7 +2264,7 @@
         <v>45</v>
       </c>
       <c r="W19" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X19" s="6">
         <v>32</v>
@@ -2334,7 +2335,7 @@
         <v>45</v>
       </c>
       <c r="W20" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X20" s="6">
         <v>32</v>
@@ -2405,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="W21" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X21" s="6">
         <v>32</v>
@@ -2479,7 +2480,7 @@
         <v>220</v>
       </c>
       <c r="W22" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X22" s="6">
         <v>32</v>
@@ -2550,7 +2551,7 @@
         <v>220</v>
       </c>
       <c r="W23" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X23" s="6">
         <v>32</v>
@@ -2621,7 +2622,7 @@
         <v>220</v>
       </c>
       <c r="W24" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X24" s="6">
         <v>32</v>
@@ -2692,7 +2693,7 @@
         <v>45</v>
       </c>
       <c r="W25" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X25" s="6">
         <v>40</v>
@@ -2763,7 +2764,7 @@
         <v>45</v>
       </c>
       <c r="W26" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X26" s="6">
         <v>40</v>
@@ -4484,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="X51" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4552,7 +4553,7 @@
         <v>4200</v>
       </c>
       <c r="W52" s="6">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="X52" s="6">
         <v>5000</v>
@@ -4760,10 +4761,10 @@
         <v>100</v>
       </c>
       <c r="W55" s="7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="X55" s="7">
-        <v>10000000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5076,10 +5077,10 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5236,10 +5237,10 @@
       <c r="V2" s="6">
         <v>380</v>
       </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
+      <c r="W2" s="16">
+        <v>0</v>
+      </c>
+      <c r="X2" s="16">
         <v>366</v>
       </c>
     </row>
@@ -5298,10 +5299,10 @@
       <c r="S3" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="6">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
         <v>86400</v>
       </c>
     </row>
@@ -5366,10 +5367,10 @@
       <c r="V4" s="6">
         <v>70000</v>
       </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
+      <c r="W4" s="16">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16">
         <v>70000</v>
       </c>
     </row>
@@ -5437,10 +5438,10 @@
       <c r="V5" s="6">
         <v>12</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="16">
         <v>-10</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="16">
         <v>10</v>
       </c>
     </row>
@@ -5508,10 +5509,10 @@
       <c r="V6" s="6">
         <v>12</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="16">
         <v>-10</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="16">
         <v>10</v>
       </c>
     </row>
@@ -5579,10 +5580,10 @@
       <c r="V7" s="6">
         <v>12</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="16">
         <v>-10</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="16">
         <v>10</v>
       </c>
     </row>
@@ -5650,10 +5651,10 @@
       <c r="V8" s="6">
         <v>1000</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="16">
         <v>-720</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="16">
         <v>720</v>
       </c>
     </row>
@@ -5721,10 +5722,10 @@
       <c r="V9" s="6">
         <v>1000</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="16">
         <v>-720</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="16">
         <v>720</v>
       </c>
     </row>
@@ -5792,10 +5793,10 @@
       <c r="V10" s="6">
         <v>1000</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="16">
         <v>-720</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="16">
         <v>720</v>
       </c>
     </row>
@@ -5851,6 +5852,8 @@
       <c r="Q11" t="s">
         <v>49</v>
       </c>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
     </row>
     <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5913,10 +5916,10 @@
       <c r="V12" s="6">
         <v>11</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="16">
         <v>-9</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="16">
         <v>9</v>
       </c>
     </row>
@@ -5981,10 +5984,10 @@
       <c r="V13" s="6">
         <v>11</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="16">
         <v>-9</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="16">
         <v>9</v>
       </c>
     </row>
@@ -6040,6 +6043,8 @@
       <c r="Q14" t="s">
         <v>57</v>
       </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -6091,7 +6096,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>57</v>
+        <v>110</v>
+      </c>
+      <c r="R15" s="4">
+        <v>5</v>
+      </c>
+      <c r="U15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="7">
+        <v>5</v>
+      </c>
+      <c r="W15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="X15" s="16">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6146,6 +6166,8 @@
       <c r="Q16" t="s">
         <v>57</v>
       </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -6199,6 +6221,8 @@
       <c r="Q17" t="s">
         <v>57</v>
       </c>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -6252,6 +6276,8 @@
       <c r="Q18" t="s">
         <v>57</v>
       </c>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
     </row>
     <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -6320,10 +6346,10 @@
       <c r="V19" s="6">
         <v>11</v>
       </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
         <v>10</v>
       </c>
     </row>
@@ -6385,10 +6411,10 @@
       <c r="S20" t="s">
         <v>64</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="16">
         <v>-5</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="16">
         <v>10</v>
       </c>
     </row>
@@ -6447,6 +6473,8 @@
       <c r="S21" t="s">
         <v>52</v>
       </c>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -6503,6 +6531,8 @@
       <c r="S22" t="s">
         <v>52</v>
       </c>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -6559,6 +6589,8 @@
       <c r="S23" t="s">
         <v>52</v>
       </c>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -6615,6 +6647,8 @@
       <c r="S24" t="s">
         <v>52</v>
       </c>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
     </row>
     <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -6671,6 +6705,8 @@
       <c r="S25" t="s">
         <v>52</v>
       </c>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
     </row>
     <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -6727,6 +6763,8 @@
       <c r="S26" t="s">
         <v>52</v>
       </c>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
     </row>
     <row r="27" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -6780,6 +6818,8 @@
       <c r="Q27" t="s">
         <v>145</v>
       </c>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -6833,6 +6873,8 @@
       <c r="Q28" t="s">
         <v>145</v>
       </c>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -6886,6 +6928,8 @@
       <c r="Q29" t="s">
         <v>145</v>
       </c>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -6939,6 +6983,8 @@
       <c r="Q30" t="s">
         <v>145</v>
       </c>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -6992,6 +7038,8 @@
       <c r="Q31" t="s">
         <v>145</v>
       </c>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -7045,8 +7093,10 @@
       <c r="Q32" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+    </row>
+    <row r="33" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -7098,6 +7148,8 @@
       <c r="Q33" t="s">
         <v>145</v>
       </c>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD914D00-3D4C-A64A-B611-D9DC180479F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E7C08-C574-AB42-9536-F6034077BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="32320" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="30240" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="143">
   <si>
     <t>item</t>
   </si>
@@ -260,9 +260,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>MPa</t>
-  </si>
-  <si>
     <t>Pto</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>Tmcu</t>
   </si>
   <si>
-    <t>W 36</t>
-  </si>
-  <si>
     <t>PDU inhibit 1</t>
   </si>
   <si>
@@ -374,30 +368,6 @@
     <t>Sequence state</t>
   </si>
   <si>
-    <t>Rel 1-0</t>
-  </si>
-  <si>
-    <t>Rel 1-1</t>
-  </si>
-  <si>
-    <t>Rel 1-2</t>
-  </si>
-  <si>
-    <t>Rel 1-3</t>
-  </si>
-  <si>
-    <t>Rel 1-4</t>
-  </si>
-  <si>
-    <t>Rel 1-5</t>
-  </si>
-  <si>
-    <t>Rel 1-6</t>
-  </si>
-  <si>
-    <t>Rel 1-7</t>
-  </si>
-  <si>
     <t>Tchassis</t>
   </si>
   <si>
@@ -428,12 +398,6 @@
     <t>ec</t>
   </si>
   <si>
-    <t>W028</t>
-  </si>
-  <si>
-    <t>W036</t>
-  </si>
-  <si>
     <t>Val 8</t>
   </si>
   <si>
@@ -480,6 +444,12 @@
   </si>
   <si>
     <t>OFDV</t>
+  </si>
+  <si>
+    <t>MPaA</t>
+  </si>
+  <si>
+    <t>W040</t>
   </si>
 </sst>
 </file>
@@ -894,13 +864,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X50" sqref="X50"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U5" s="7">
         <v>-0.1</v>
@@ -1262,16 +1232,16 @@
       <c r="V5" s="7">
         <v>3.8</v>
       </c>
-      <c r="W5" s="6">
-        <v>2</v>
+      <c r="W5" s="7">
+        <v>2.5</v>
       </c>
       <c r="X5" s="7">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -1325,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="T6" s="6">
         <v>1</v>
@@ -1336,16 +1306,16 @@
       <c r="V6" s="7">
         <v>15.5</v>
       </c>
-      <c r="W6" s="6">
-        <v>8</v>
+      <c r="W6" s="7">
+        <v>5.5</v>
       </c>
       <c r="X6" s="7">
-        <v>12</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -1399,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U7" s="7">
         <v>-0.5</v>
@@ -1408,15 +1378,15 @@
         <v>15.5</v>
       </c>
       <c r="W7" s="7">
-        <v>12</v>
+        <v>13.7</v>
       </c>
       <c r="X7" s="7">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1470,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U8" s="7">
         <v>-0.1</v>
@@ -1479,15 +1449,15 @@
         <v>3.8</v>
       </c>
       <c r="W8" s="7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X8" s="7">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1541,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U9" s="7">
         <v>-0.1</v>
@@ -1550,15 +1520,15 @@
         <v>15.5</v>
       </c>
       <c r="W9" s="7">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="X9" s="7">
-        <v>12</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -1612,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U10" s="7">
         <v>-0.1</v>
@@ -1629,7 +1599,7 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -1683,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U11" s="7">
         <v>-0.1</v>
@@ -1700,7 +1670,7 @@
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -1754,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="T12" s="4">
         <v>2</v>
@@ -1774,7 +1744,7 @@
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1828,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U13" s="7">
         <v>-0.1</v>
@@ -1845,7 +1815,7 @@
     </row>
     <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -1899,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="U14" s="7">
         <v>-0.1</v>
@@ -1916,7 +1886,7 @@
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -1940,7 +1910,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -1964,13 +1934,13 @@
         <v>2</v>
       </c>
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R15" s="6">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" s="7">
         <v>-22</v>
@@ -1987,7 +1957,7 @@
     </row>
     <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2011,7 +1981,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -2035,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R16" s="6">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U16" s="7">
         <v>-2500</v>
@@ -2058,7 +2028,7 @@
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -2082,7 +2052,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -2106,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R17" s="6">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U17" s="7">
         <v>-5</v>
@@ -2121,15 +2091,15 @@
         <v>45</v>
       </c>
       <c r="W17" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X17" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2153,7 +2123,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2177,13 +2147,13 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R18" s="6">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="7">
@@ -2193,15 +2163,15 @@
         <v>45</v>
       </c>
       <c r="W18" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X18" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2225,7 +2195,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -2249,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R19" s="6">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U19" s="7">
         <v>-5</v>
@@ -2264,15 +2234,15 @@
         <v>45</v>
       </c>
       <c r="W19" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X19" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -2296,7 +2266,7 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -2320,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="6">
         <v>3</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U20" s="7">
         <v>-5</v>
@@ -2335,15 +2305,15 @@
         <v>45</v>
       </c>
       <c r="W20" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X20" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2367,7 +2337,7 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -2391,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R21" s="6">
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U21" s="7">
         <v>-5</v>
@@ -2406,15 +2376,15 @@
         <v>45</v>
       </c>
       <c r="W21" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X21" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2438,7 +2408,7 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -2462,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R22" s="6">
         <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T22" s="6">
         <v>3</v>
@@ -2480,15 +2450,15 @@
         <v>220</v>
       </c>
       <c r="W22" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X22" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2512,7 +2482,7 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -2536,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R23" s="6">
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U23" s="7">
         <v>-20</v>
@@ -2551,15 +2521,15 @@
         <v>220</v>
       </c>
       <c r="W23" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X23" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -2583,7 +2553,7 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2607,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R24" s="6">
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U24" s="7">
         <v>-20</v>
@@ -2622,15 +2592,15 @@
         <v>220</v>
       </c>
       <c r="W24" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X24" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2654,7 +2624,7 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
@@ -2684,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="S25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U25" s="7">
         <v>-5</v>
@@ -2701,7 +2671,7 @@
     </row>
     <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -2725,7 +2695,7 @@
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
@@ -2755,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U26" s="7">
         <v>-5</v>
@@ -2772,7 +2742,7 @@
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2784,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F27" s="6">
         <v>-1</v>
@@ -2805,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M27" s="6">
         <v>16</v>
@@ -2840,7 +2810,7 @@
     </row>
     <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2864,7 +2834,7 @@
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
@@ -2888,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R28" s="6">
         <v>2</v>
@@ -2899,8 +2869,8 @@
       <c r="V28" s="7">
         <v>1.4</v>
       </c>
-      <c r="W28" s="6">
-        <v>0</v>
+      <c r="W28" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X28" s="7">
         <v>0.5</v>
@@ -2908,7 +2878,7 @@
     </row>
     <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -2932,7 +2902,7 @@
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J29" t="s">
         <v>27</v>
@@ -2956,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R29" s="6">
         <v>3</v>
@@ -2967,8 +2937,8 @@
       <c r="V29" s="7">
         <v>1.4</v>
       </c>
-      <c r="W29" s="6">
-        <v>0</v>
+      <c r="W29" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X29" s="7">
         <v>0.5</v>
@@ -2976,7 +2946,7 @@
     </row>
     <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -3047,7 +3017,7 @@
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -3110,15 +3080,15 @@
         <v>31</v>
       </c>
       <c r="W31" s="7">
-        <v>21.6</v>
+        <v>-1</v>
       </c>
       <c r="X31" s="7">
-        <v>26.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3181,15 +3151,15 @@
         <v>31</v>
       </c>
       <c r="W32" s="7">
-        <v>21.6</v>
+        <v>-1</v>
       </c>
       <c r="X32" s="7">
-        <v>26.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3237,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R33" s="6">
         <v>0</v>
@@ -3246,21 +3216,21 @@
         <v>-1</v>
       </c>
       <c r="V33" s="6">
-        <v>11</v>
-      </c>
-      <c r="W33" s="6">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="W33" s="16">
+        <v>1.5</v>
       </c>
       <c r="X33" s="6">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -3272,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="6">
         <v>-1</v>
@@ -3284,7 +3254,7 @@
         <v>-1</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J34" t="s">
         <v>27</v>
@@ -3298,7 +3268,7 @@
       <c r="M34" s="6">
         <v>1</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="11">
         <v>1</v>
       </c>
       <c r="O34" s="7">
@@ -3308,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R34" s="6">
         <v>8</v>
@@ -3319,8 +3289,8 @@
       <c r="V34" s="7">
         <v>1.4</v>
       </c>
-      <c r="W34" s="6">
-        <v>0</v>
+      <c r="W34" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X34" s="7">
         <v>0.5</v>
@@ -3328,7 +3298,7 @@
     </row>
     <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -3340,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="6">
         <v>-1</v>
@@ -3352,7 +3322,7 @@
         <v>-1</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
@@ -3366,7 +3336,7 @@
       <c r="M35" s="6">
         <v>1</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="11">
         <v>2</v>
       </c>
       <c r="O35" s="7">
@@ -3376,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R35" s="6">
         <v>9</v>
@@ -3387,8 +3357,8 @@
       <c r="V35" s="7">
         <v>1.4</v>
       </c>
-      <c r="W35" s="6">
-        <v>0</v>
+      <c r="W35" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X35" s="7">
         <v>0.5</v>
@@ -3396,7 +3366,7 @@
     </row>
     <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
@@ -3408,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="6">
         <v>-1</v>
@@ -3420,7 +3390,7 @@
         <v>-1</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J36" t="s">
         <v>27</v>
@@ -3434,7 +3404,7 @@
       <c r="M36" s="6">
         <v>1</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="11">
         <v>4</v>
       </c>
       <c r="O36" s="7">
@@ -3444,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R36" s="6">
         <v>10</v>
@@ -3455,8 +3425,8 @@
       <c r="V36" s="7">
         <v>1.4</v>
       </c>
-      <c r="W36" s="6">
-        <v>0</v>
+      <c r="W36" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X36" s="7">
         <v>0.5</v>
@@ -3464,7 +3434,7 @@
     </row>
     <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -3476,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="6">
         <v>-1</v>
@@ -3488,7 +3458,7 @@
         <v>-1</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J37" t="s">
         <v>27</v>
@@ -3502,7 +3472,7 @@
       <c r="M37" s="6">
         <v>1</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="11">
         <v>8</v>
       </c>
       <c r="O37" s="7">
@@ -3512,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R37" s="6">
         <v>11</v>
@@ -3523,8 +3493,8 @@
       <c r="V37" s="7">
         <v>1.4</v>
       </c>
-      <c r="W37" s="6">
-        <v>0</v>
+      <c r="W37" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X37" s="7">
         <v>0.5</v>
@@ -3532,7 +3502,7 @@
     </row>
     <row r="38" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -3544,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="6">
         <v>-1</v>
@@ -3556,7 +3526,7 @@
         <v>-1</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J38" t="s">
         <v>27</v>
@@ -3570,7 +3540,7 @@
       <c r="M38" s="6">
         <v>1</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="11">
         <v>16</v>
       </c>
       <c r="O38" s="7">
@@ -3580,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R38" s="6">
         <v>12</v>
@@ -3591,8 +3561,8 @@
       <c r="V38" s="7">
         <v>1.4</v>
       </c>
-      <c r="W38" s="6">
-        <v>0</v>
+      <c r="W38" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X38" s="7">
         <v>0.5</v>
@@ -3600,7 +3570,7 @@
     </row>
     <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -3612,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="6">
         <v>-1</v>
@@ -3624,7 +3594,7 @@
         <v>-1</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J39" t="s">
         <v>27</v>
@@ -3638,7 +3608,7 @@
       <c r="M39" s="6">
         <v>1</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="11">
         <v>32</v>
       </c>
       <c r="O39" s="7">
@@ -3648,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R39" s="6">
         <v>13</v>
@@ -3659,8 +3629,8 @@
       <c r="V39" s="7">
         <v>1.4</v>
       </c>
-      <c r="W39" s="6">
-        <v>0</v>
+      <c r="W39" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X39" s="7">
         <v>0.5</v>
@@ -3668,7 +3638,7 @@
     </row>
     <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
@@ -3680,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="6">
         <v>-1</v>
@@ -3692,7 +3662,7 @@
         <v>-1</v>
       </c>
       <c r="I40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J40" t="s">
         <v>27</v>
@@ -3706,7 +3676,7 @@
       <c r="M40" s="6">
         <v>1</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="11">
         <v>64</v>
       </c>
       <c r="O40" s="7">
@@ -3716,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R40" s="6">
         <v>14</v>
@@ -3727,8 +3697,8 @@
       <c r="V40" s="7">
         <v>1.4</v>
       </c>
-      <c r="W40" s="6">
-        <v>0</v>
+      <c r="W40" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X40" s="7">
         <v>0.5</v>
@@ -3736,7 +3706,7 @@
     </row>
     <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -3748,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="6">
         <v>-1</v>
@@ -3760,7 +3730,7 @@
         <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J41" t="s">
         <v>27</v>
@@ -3774,7 +3744,7 @@
       <c r="M41" s="6">
         <v>1</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="11">
         <v>128</v>
       </c>
       <c r="O41" s="7">
@@ -3784,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R41" s="6">
         <v>15</v>
@@ -3795,8 +3765,8 @@
       <c r="V41" s="7">
         <v>1.4</v>
       </c>
-      <c r="W41" s="6">
-        <v>0</v>
+      <c r="W41" s="16">
+        <v>-0.5</v>
       </c>
       <c r="X41" s="7">
         <v>0.5</v>
@@ -3804,7 +3774,7 @@
     </row>
     <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -3816,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F42" s="6">
         <v>-1</v>
@@ -3828,51 +3798,54 @@
         <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K42" s="6">
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M42" s="6">
-        <v>1</v>
-      </c>
-      <c r="N42" s="11">
+        <v>12</v>
+      </c>
+      <c r="N42" s="7">
         <v>1</v>
       </c>
       <c r="O42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="R42" s="6">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="S42" t="s">
+        <v>96</v>
       </c>
       <c r="U42" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V42" s="7">
-        <v>1.4</v>
+        <v>-5</v>
+      </c>
+      <c r="V42" s="6">
+        <v>45</v>
       </c>
       <c r="W42" s="6">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="X42" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -3884,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F43" s="6">
         <v>-1</v>
@@ -3896,10 +3869,10 @@
         <v>-1</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K43" s="6">
         <v>1</v>
@@ -3908,39 +3881,42 @@
         <v>27</v>
       </c>
       <c r="M43" s="6">
-        <v>1</v>
-      </c>
-      <c r="N43" s="11">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1</v>
       </c>
       <c r="O43" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="8">
         <v>0</v>
       </c>
       <c r="Q43" t="s">
+        <v>63</v>
+      </c>
+      <c r="R43" s="6">
+        <v>12</v>
+      </c>
+      <c r="S43" t="s">
+        <v>117</v>
+      </c>
+      <c r="U43" s="6">
+        <v>-10</v>
+      </c>
+      <c r="V43" s="6">
         <v>110</v>
       </c>
-      <c r="R43" s="6">
-        <v>17</v>
-      </c>
-      <c r="U43" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V43" s="7">
-        <v>1.4</v>
-      </c>
       <c r="W43" s="6">
-        <v>0</v>
-      </c>
-      <c r="X43" s="7">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="X43" s="6">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -3952,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F44" s="6">
         <v>-1</v>
@@ -3964,10 +3940,10 @@
         <v>-1</v>
       </c>
       <c r="I44" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K44" s="6">
         <v>1</v>
@@ -3976,39 +3952,42 @@
         <v>27</v>
       </c>
       <c r="M44" s="6">
-        <v>1</v>
-      </c>
-      <c r="N44" s="11">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="N44" s="7">
+        <v>1</v>
       </c>
       <c r="O44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="8">
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="R44" s="6">
-        <v>18</v>
-      </c>
-      <c r="U44" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V44" s="7">
-        <v>1.4</v>
+        <v>13</v>
+      </c>
+      <c r="S44" t="s">
+        <v>119</v>
+      </c>
+      <c r="U44" s="6">
+        <v>-200</v>
+      </c>
+      <c r="V44" s="6">
+        <v>4200</v>
       </c>
       <c r="W44" s="6">
-        <v>0</v>
-      </c>
-      <c r="X44" s="7">
-        <v>0.5</v>
+        <v>2500</v>
+      </c>
+      <c r="X44" s="6">
+        <v>2800</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -4020,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="6">
         <v>-1</v>
@@ -4032,10 +4011,10 @@
         <v>-1</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K45" s="6">
         <v>1</v>
@@ -4044,99 +4023,103 @@
         <v>27</v>
       </c>
       <c r="M45" s="6">
-        <v>1</v>
-      </c>
-      <c r="N45" s="11">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
       </c>
       <c r="O45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="R45" s="6">
-        <v>19</v>
-      </c>
-      <c r="U45" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V45" s="7">
-        <v>1.4</v>
+        <v>14</v>
+      </c>
+      <c r="S45" t="s">
+        <v>121</v>
+      </c>
+      <c r="U45" s="6">
+        <v>-40</v>
+      </c>
+      <c r="V45" s="6">
+        <v>540</v>
       </c>
       <c r="W45" s="6">
-        <v>0</v>
-      </c>
-      <c r="X45" s="7">
-        <v>0.5</v>
+        <v>25</v>
+      </c>
+      <c r="X45" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>36</v>
-      </c>
-      <c r="F46" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G46" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="6">
+        <v>122</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13">
+        <v>38</v>
+      </c>
+      <c r="F46" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="13">
         <v>-1</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="6">
+        <v>34</v>
+      </c>
+      <c r="K46" s="13">
         <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>27</v>
       </c>
-      <c r="M46" s="6">
-        <v>1</v>
-      </c>
-      <c r="N46" s="11">
+      <c r="M46" s="13">
         <v>16</v>
       </c>
-      <c r="O46" s="7">
-        <v>1</v>
-      </c>
-      <c r="P46" s="8">
+      <c r="N46" s="14">
+        <v>1</v>
+      </c>
+      <c r="O46" s="14">
+        <v>0</v>
+      </c>
+      <c r="P46" s="15">
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>110</v>
-      </c>
-      <c r="R46" s="6">
-        <v>20</v>
-      </c>
-      <c r="U46" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V46" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="W46" s="6">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="R46" s="13">
+        <v>16</v>
+      </c>
+      <c r="T46" s="12"/>
+      <c r="U46" s="6">
+        <v>-100</v>
+      </c>
+      <c r="V46" s="6">
+        <v>100</v>
+      </c>
+      <c r="W46" s="7">
+        <v>-0.5</v>
       </c>
       <c r="X46" s="7">
         <v>0.5</v>
@@ -4144,7 +4127,7 @@
     </row>
     <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -4156,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F47" s="6">
         <v>-1</v>
@@ -4168,718 +4151,105 @@
         <v>-1</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M47" s="6">
-        <v>1</v>
-      </c>
-      <c r="N47" s="11">
         <v>32</v>
       </c>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
       <c r="O47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="8">
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="R47" s="6">
-        <v>21</v>
-      </c>
-      <c r="U47" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V47" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="W47" s="6">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="U47" s="6">
+        <v>-100</v>
+      </c>
+      <c r="V47" s="6">
+        <v>100</v>
+      </c>
+      <c r="W47" s="7">
+        <v>-0.5</v>
       </c>
       <c r="X47" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6">
-        <v>36</v>
-      </c>
-      <c r="F48" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G48" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" s="6">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="6">
-        <v>1</v>
-      </c>
-      <c r="N48" s="11">
-        <v>64</v>
-      </c>
-      <c r="O48" s="7">
-        <v>1</v>
-      </c>
-      <c r="P48" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>110</v>
-      </c>
-      <c r="R48" s="6">
-        <v>22</v>
-      </c>
-      <c r="U48" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V48" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="W48" s="6">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
-        <v>36</v>
-      </c>
-      <c r="F49" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H49" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>109</v>
-      </c>
-      <c r="J49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="6">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="6">
-        <v>1</v>
-      </c>
-      <c r="N49" s="11">
-        <v>128</v>
-      </c>
-      <c r="O49" s="7">
-        <v>1</v>
-      </c>
-      <c r="P49" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>110</v>
-      </c>
-      <c r="R49" s="6">
-        <v>23</v>
-      </c>
-      <c r="U49" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="V49" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="W49" s="6">
-        <v>0</v>
-      </c>
-      <c r="X49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="6">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6">
-        <v>23</v>
-      </c>
-      <c r="F50" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G50" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H50" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>56</v>
-      </c>
-      <c r="J50" t="s">
-        <v>34</v>
-      </c>
-      <c r="K50" s="6">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="6">
-        <v>12</v>
-      </c>
-      <c r="N50" s="7">
-        <v>1</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-      <c r="P50" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>63</v>
-      </c>
-      <c r="R50" s="6">
-        <v>8</v>
-      </c>
-      <c r="S50" t="s">
-        <v>97</v>
-      </c>
-      <c r="U50" s="7">
-        <v>-5</v>
-      </c>
-      <c r="V50" s="6">
-        <v>45</v>
-      </c>
-      <c r="W50" s="6">
-        <v>0</v>
-      </c>
-      <c r="X50" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>33</v>
-      </c>
-      <c r="F51" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H51" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J51" t="s">
-        <v>34</v>
-      </c>
-      <c r="K51" s="6">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="6">
-        <v>16</v>
-      </c>
-      <c r="N51" s="7">
-        <v>1</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-      <c r="P51" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>63</v>
-      </c>
-      <c r="R51" s="6">
-        <v>12</v>
-      </c>
-      <c r="S51" t="s">
-        <v>127</v>
-      </c>
-      <c r="U51" s="6">
-        <v>-10</v>
-      </c>
-      <c r="V51" s="6">
-        <v>110</v>
-      </c>
-      <c r="W51" s="6">
-        <v>1</v>
-      </c>
-      <c r="X51" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="6">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6">
-        <v>34</v>
-      </c>
-      <c r="F52" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G52" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" t="s">
-        <v>34</v>
-      </c>
-      <c r="K52" s="6">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="6">
-        <v>16</v>
-      </c>
-      <c r="N52" s="7">
-        <v>1</v>
-      </c>
-      <c r="O52" s="7">
-        <v>0</v>
-      </c>
-      <c r="P52" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>63</v>
-      </c>
-      <c r="R52" s="6">
-        <v>13</v>
-      </c>
-      <c r="S52" t="s">
-        <v>129</v>
-      </c>
-      <c r="U52" s="6">
-        <v>-200</v>
-      </c>
-      <c r="V52" s="6">
-        <v>4200</v>
-      </c>
-      <c r="W52" s="6">
-        <v>250</v>
-      </c>
-      <c r="X52" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6">
-        <v>35</v>
-      </c>
-      <c r="F53" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H53" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>56</v>
-      </c>
-      <c r="J53" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" s="6">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="6">
-        <v>9</v>
-      </c>
-      <c r="N53" s="7">
-        <v>1</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-      <c r="P53" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="6">
-        <v>14</v>
-      </c>
-      <c r="S53" t="s">
-        <v>131</v>
-      </c>
-      <c r="U53" s="6">
-        <v>-40</v>
-      </c>
-      <c r="V53" s="6">
-        <v>540</v>
-      </c>
-      <c r="W53" s="6">
-        <v>20</v>
-      </c>
-      <c r="X53" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="13">
-        <v>1</v>
-      </c>
-      <c r="C54" s="13">
-        <v>0</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13">
-        <v>38</v>
-      </c>
-      <c r="F54" s="13">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="13">
-        <v>-1</v>
-      </c>
-      <c r="H54" s="13">
-        <v>-1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" t="s">
-        <v>34</v>
-      </c>
-      <c r="K54" s="13">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="13">
-        <v>16</v>
-      </c>
-      <c r="N54" s="14">
-        <v>1</v>
-      </c>
-      <c r="O54" s="14">
-        <v>0</v>
-      </c>
-      <c r="P54" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>63</v>
-      </c>
-      <c r="R54" s="13">
-        <v>16</v>
-      </c>
-      <c r="T54" s="12"/>
-      <c r="U54" s="6">
-        <v>-100</v>
-      </c>
-      <c r="V54" s="6">
-        <v>100</v>
-      </c>
-      <c r="W54" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="X54" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="6">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6">
-        <v>42</v>
-      </c>
-      <c r="F55" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G55" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H55" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>134</v>
-      </c>
-      <c r="J55" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" s="6">
-        <v>2</v>
-      </c>
-      <c r="L55" t="s">
-        <v>34</v>
-      </c>
-      <c r="M55" s="6">
-        <v>32</v>
-      </c>
-      <c r="N55" s="7">
-        <v>1</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-      <c r="P55" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>63</v>
-      </c>
-      <c r="R55" s="6">
-        <v>17</v>
-      </c>
-      <c r="U55" s="6">
-        <v>-100</v>
-      </c>
-      <c r="V55" s="6">
-        <v>100</v>
-      </c>
-      <c r="W55" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="X55" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="6">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6">
-        <v>28</v>
-      </c>
-      <c r="F56" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G56" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H56" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" t="s">
-        <v>34</v>
-      </c>
-      <c r="K56" s="6">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="6">
-        <v>16</v>
-      </c>
-      <c r="N56" s="7">
-        <v>1</v>
-      </c>
-      <c r="O56" s="7">
-        <v>0</v>
-      </c>
-      <c r="P56" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="6">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="6">
-        <v>36</v>
-      </c>
-      <c r="F57" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G57" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" t="s">
-        <v>34</v>
-      </c>
-      <c r="K57" s="6">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="6">
-        <v>16</v>
-      </c>
-      <c r="N57" s="7">
-        <v>1</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-      <c r="P57" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+    </row>
+    <row r="57" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+    </row>
+    <row r="58" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+    </row>
+    <row r="59" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+    </row>
+    <row r="60" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+    </row>
+    <row r="61" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+    </row>
+    <row r="62" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+    </row>
+    <row r="63" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
@@ -5013,56 +4383,6 @@
       <c r="N90" s="16"/>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
-    </row>
-    <row r="91" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-    </row>
-    <row r="92" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-    </row>
-    <row r="93" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-    </row>
-    <row r="94" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-    </row>
-    <row r="95" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-    </row>
-    <row r="96" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-    </row>
-    <row r="97" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-    </row>
-    <row r="98" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-    </row>
-    <row r="99" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-    </row>
-    <row r="100" spans="14:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5077,10 +4397,10 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5415,10 +4735,10 @@
         <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>-7.3485037299999998E-3</v>
+        <v>-1.2682281E-3</v>
       </c>
       <c r="O5" s="7">
-        <v>224.638244528</v>
+        <v>41.569346000000003</v>
       </c>
       <c r="P5" s="8">
         <v>2</v>
@@ -5439,10 +4759,10 @@
         <v>12</v>
       </c>
       <c r="W5" s="16">
-        <v>-10</v>
+        <v>-1.5</v>
       </c>
       <c r="X5" s="16">
-        <v>10</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5486,10 +4806,10 @@
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>-7.2561042000000003E-3</v>
+        <v>-1.2642224999999999E-3</v>
       </c>
       <c r="O6" s="7">
-        <v>214.35439313200001</v>
+        <v>41.459859999999999</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -5510,10 +4830,10 @@
         <v>12</v>
       </c>
       <c r="W6" s="16">
-        <v>-10</v>
+        <v>-1.5</v>
       </c>
       <c r="X6" s="16">
-        <v>10</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5557,10 +4877,10 @@
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>7.4936784300000002E-3</v>
+        <v>-1.2714554E-3</v>
       </c>
       <c r="O7" s="7">
-        <v>-230.94580335500001</v>
+        <v>41.616961000000003</v>
       </c>
       <c r="P7" s="8">
         <v>2</v>
@@ -5581,10 +4901,10 @@
         <v>12</v>
       </c>
       <c r="W7" s="16">
-        <v>-10</v>
+        <v>-1.5</v>
       </c>
       <c r="X7" s="16">
-        <v>10</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5628,10 +4948,10 @@
         <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>3.1028564000000002E-2</v>
+        <v>6.9643119000000003E-2</v>
       </c>
       <c r="O8" s="7">
-        <v>-996.66850999999997</v>
+        <v>-2281.9263999999998</v>
       </c>
       <c r="P8" s="8">
         <v>0</v>
@@ -5652,10 +4972,10 @@
         <v>1000</v>
       </c>
       <c r="W8" s="16">
-        <v>-720</v>
+        <v>-3</v>
       </c>
       <c r="X8" s="16">
-        <v>720</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5699,10 +5019,10 @@
         <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>3.0411868000000002E-2</v>
+        <v>6.6636626000000004E-2</v>
       </c>
       <c r="O9" s="7">
-        <v>-984.91875000000005</v>
+        <v>-2184.2152999999998</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
@@ -5723,10 +5043,10 @@
         <v>1000</v>
       </c>
       <c r="W9" s="16">
-        <v>-720</v>
+        <v>-3</v>
       </c>
       <c r="X9" s="16">
-        <v>720</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5770,10 +5090,10 @@
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>2.9739155999999999E-2</v>
+        <v>6.7820255999999995E-2</v>
       </c>
       <c r="O10" s="7">
-        <v>-920.69453999999996</v>
+        <v>-2222.0628999999999</v>
       </c>
       <c r="P10" s="8">
         <v>0</v>
@@ -5794,10 +5114,10 @@
         <v>1000</v>
       </c>
       <c r="W10" s="16">
-        <v>-720</v>
+        <v>-3</v>
       </c>
       <c r="X10" s="16">
-        <v>720</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6096,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R15" s="4">
         <v>5</v>
@@ -6347,7 +5667,7 @@
         <v>11</v>
       </c>
       <c r="W19" s="16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="X19" s="16">
         <v>10</v>
@@ -6412,7 +5732,7 @@
         <v>64</v>
       </c>
       <c r="W20" s="16">
-        <v>-5</v>
+        <v>-0.5</v>
       </c>
       <c r="X20" s="16">
         <v>10</v>
@@ -6768,7 +6088,7 @@
     </row>
     <row r="27" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -6792,7 +6112,7 @@
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
@@ -6816,14 +6136,14 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -6847,7 +6167,7 @@
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
@@ -6871,14 +6191,14 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -6902,7 +6222,7 @@
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
@@ -6926,14 +6246,14 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -6957,7 +6277,7 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -6981,14 +6301,14 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -7012,7 +6332,7 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -7036,14 +6356,14 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -7067,7 +6387,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -7091,14 +6411,14 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
     </row>
     <row r="33" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -7122,7 +6442,7 @@
         <v>-1</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -7146,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>

--- a/config_tlm.xlsx
+++ b/config_tlm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E7C08-C574-AB42-9536-F6034077BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9249D24A-59CC-6F43-9737-5274C5947AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="30240" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="30240" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>IMU</t>
   </si>
   <si>
-    <t>m/s2</t>
-  </si>
-  <si>
     <t>a_y,ci</t>
   </si>
   <si>
@@ -450,6 +447,9 @@
   </si>
   <si>
     <t>W040</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -866,11 +866,11 @@
   </sheetPr>
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -972,7 +972,7 @@
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U5" s="7">
         <v>-0.1</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T6" s="6">
         <v>1</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U7" s="7">
         <v>-0.5</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -1440,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U8" s="7">
         <v>-0.1</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U9" s="7">
         <v>-0.1</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="S10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U10" s="7">
         <v>-0.1</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -1653,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="S11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U11" s="7">
         <v>-0.1</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>-1</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -1724,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="S12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T12" s="4">
         <v>2</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -1798,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="S13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U13" s="7">
         <v>-0.1</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -1869,7 +1869,7 @@
         <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U14" s="7">
         <v>-0.1</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -1934,13 +1934,13 @@
         <v>2</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R15" s="6">
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U15" s="7">
         <v>-22</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R16" s="6">
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U16" s="7">
         <v>-2500</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -2052,7 +2052,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -2076,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="Q17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R17" s="6">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U17" s="7">
         <v>-5</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2147,13 +2147,13 @@
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R18" s="6">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="7">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -2219,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R19" s="6">
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U19" s="7">
         <v>-5</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -2266,7 +2266,7 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -2290,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R20" s="6">
         <v>3</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U20" s="7">
         <v>-5</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="21" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -2361,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="Q21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R21" s="6">
         <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U21" s="7">
         <v>-5</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -2432,13 +2432,13 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R22" s="6">
         <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T22" s="6">
         <v>3</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2482,7 +2482,7 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -2506,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="Q23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R23" s="6">
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U23" s="7">
         <v>-20</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="24" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2577,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R24" s="6">
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U24" s="7">
         <v>-20</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2624,7 +2624,7 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
@@ -2648,13 +2648,13 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R25" s="6">
         <v>6</v>
       </c>
       <c r="S25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U25" s="7">
         <v>-5</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
@@ -2719,13 +2719,13 @@
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R26" s="6">
         <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U26" s="7">
         <v>-5</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R28" s="6">
         <v>2</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
         <v>27</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R29" s="6">
         <v>3</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -2994,13 +2994,13 @@
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R30" s="6">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U30" s="6">
         <v>-1</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -3041,7 +3041,7 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -3065,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R31" s="6">
         <v>1</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U31" s="6">
         <v>-1</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -3136,13 +3136,13 @@
         <v>1</v>
       </c>
       <c r="Q32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R32" s="6">
         <v>2</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U32" s="6">
         <v>-1</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>-1</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R33" s="6">
         <v>0</v>
@@ -3225,12 +3225,12 @@
         <v>37</v>
       </c>
       <c r="Y33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -3254,7 +3254,7 @@
         <v>-1</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
         <v>27</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R34" s="6">
         <v>8</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>-1</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R35" s="6">
         <v>9</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>-1</v>
       </c>
       <c r="I36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
         <v>27</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R36" s="6">
         <v>10</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>-1</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
         <v>27</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R37" s="6">
         <v>11</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="38" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -3526,7 +3526,7 @@
         <v>-1</v>
       </c>
       <c r="I38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J38" t="s">
         <v>27</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R38" s="6">
         <v>12</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -3594,7 +3594,7 @@
         <v>-1</v>
       </c>
       <c r="I39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J39" t="s">
         <v>27</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R39" s="6">
         <v>13</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>-1</v>
       </c>
       <c r="I40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" t="s">
         <v>27</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R40" s="6">
         <v>14</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -3730,7 +3730,7 @@
         <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J41" t="s">
         <v>27</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R41" s="6">
         <v>15</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -3798,7 +3798,7 @@
         <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
         <v>34</v>
@@ -3822,13 +3822,13 @@
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R42" s="6">
         <v>8</v>
       </c>
       <c r="S42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U42" s="7">
         <v>-5</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>-1</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43" t="s">
         <v>34</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R43" s="6">
         <v>12</v>
       </c>
       <c r="S43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U43" s="6">
         <v>-10</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>-1</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s">
         <v>34</v>
@@ -3964,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R44" s="6">
         <v>13</v>
       </c>
       <c r="S44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U44" s="6">
         <v>-200</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>-1</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" t="s">
         <v>34</v>
@@ -4035,13 +4035,13 @@
         <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R45" s="6">
         <v>14</v>
       </c>
       <c r="S45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U45" s="6">
         <v>-40</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="13">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>-1</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46" t="s">
         <v>34</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R46" s="13">
         <v>16</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>-1</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J47" t="s">
         <v>27</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R47" s="6">
         <v>17</v>
@@ -4396,11 +4396,11 @@
   </sheetPr>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="W7:X7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4750,7 +4750,7 @@
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="U5" s="6">
         <v>-12</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6">
         <v>2</v>
@@ -4821,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="U6" s="6">
         <v>-12</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -4892,7 +4892,7 @@
         <v>8</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="U7" s="6">
         <v>-12</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="8" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -4933,7 +4933,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -4963,7 +4963,7 @@
         <v>9</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" s="6">
         <v>-1000</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="9" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
@@ -5004,7 +5004,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -5034,7 +5034,7 @@
         <v>10</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U9" s="6">
         <v>-1000</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="10" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6">
         <v>2</v>
@@ -5075,7 +5075,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -5105,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U10" s="6">
         <v>-1000</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -5146,7 +5146,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -5170,14 +5170,14 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
     </row>
     <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -5201,7 +5201,7 @@
         <v>-1</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U12" s="6">
         <v>-11</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="13" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
         <v>27</v>
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U13" s="6">
         <v>-11</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -5361,14 +5361,14 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
     </row>
     <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -5392,7 +5392,7 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R15" s="4">
         <v>5</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -5460,7 +5460,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
@@ -5484,14 +5484,14 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -5515,7 +5515,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
@@ -5539,14 +5539,14 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -5570,7 +5570,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
@@ -5594,14 +5594,14 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
     </row>
     <row r="19" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="6">
         <v>8</v>
@@ -5625,7 +5625,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -5649,13 +5649,13 @@
         <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R19" s="6">
         <v>4</v>
       </c>
       <c r="S19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T19" s="6">
         <v>4</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="20" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6">
         <v>8</v>
@@ -5699,7 +5699,7 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
@@ -5723,13 +5723,13 @@
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R20" s="6">
         <v>5</v>
       </c>
       <c r="S20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W20" s="16">
         <v>-0.5</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="21" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
@@ -5788,17 +5788,17 @@
         <v>0</v>
       </c>
       <c r="Q21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -5822,7 +5822,7 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
         <v>34</v>
@@ -5846,17 +5846,17 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -5880,7 +5880,7 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
         <v>34</v>
@@ -5904,17 +5904,17 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -5938,7 +5938,7 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
@@ -5962,17 +5962,17 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
     </row>
     <row r="25" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
@@ -6020,17 +6020,17 @@
         <v>0</v>
       </c>
       <c r="Q25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
     </row>
     <row r="26" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -6054,7 +6054,7 @@
         <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
@@ -6078,17 +6078,17 @@
         <v>0</v>
       </c>
       <c r="Q26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
     </row>
     <row r="27" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -6112,7 +6112,7 @@
         <v>-1</v>
       </c>
       <c r="I27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
@@ -6136,14 +6136,14 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -6167,7 +6167,7 @@
         <v>-1</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
@@ -6191,14 +6191,14 @@
         <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -6222,7 +6222,7 @@
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
@@ -6246,14 +6246,14 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -6277,7 +6277,7 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -6301,14 +6301,14 @@
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -6332,7 +6332,7 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -6356,14 +6356,14 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -6387,7 +6387,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -6411,14 +6411,14 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
     </row>
     <row r="33" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -6442,7 +6442,7 @@
         <v>-1</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
